--- a/FFT-Band-Bin calculator.xlsx
+++ b/FFT-Band-Bin calculator.xlsx
@@ -747,7 +747,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -757,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P60" sqref="P60"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/FFT-Band-Bin calculator.xlsx
+++ b/FFT-Band-Bin calculator.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="34290" yWindow="2895" windowWidth="17280" windowHeight="8970"/>
+    <workbookView xWindow="34290" yWindow="2895" windowWidth="17280" windowHeight="8970" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="59 Bands (2)" sheetId="3" r:id="rId1"/>
-    <sheet name="59 Bands" sheetId="2" r:id="rId2"/>
-    <sheet name="42 Bands" sheetId="1" r:id="rId3"/>
+    <sheet name="59 Bands (44K) (LoSplit)" sheetId="5" r:id="rId1"/>
+    <sheet name="59 Bands (44K) (HiSplit)" sheetId="4" r:id="rId2"/>
+    <sheet name="59 Bands (44K)" sheetId="3" r:id="rId3"/>
+    <sheet name="59 Bands (36K)" sheetId="2" r:id="rId4"/>
+    <sheet name="42 Bands" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="38">
   <si>
     <t>Sample Rate</t>
   </si>
@@ -297,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -319,13 +321,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="33">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -747,7 +860,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -757,14 +870,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="2" max="12" width="8.5703125" customWidth="1"/>
     <col min="16" max="16" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -789,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="2">
-        <v>44100</v>
+        <v>11025</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -798,7 +911,7 @@
         <v>3</v>
       </c>
       <c r="K5">
-        <v>8.25</v>
+        <v>4</v>
       </c>
       <c r="L5" t="s">
         <v>29</v>
@@ -819,7 +932,7 @@
       </c>
       <c r="K6" s="14">
         <f>POWER(2,K5)</f>
-        <v>304.43702144069641</v>
+        <v>16</v>
       </c>
       <c r="L6" t="s">
         <v>30</v>
@@ -831,7 +944,7 @@
       </c>
       <c r="B7" s="17">
         <f>K7</f>
-        <v>16744.036179238301</v>
+        <v>880</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -841,7 +954,7 @@
       </c>
       <c r="K7" s="14">
         <f>K6*B6</f>
-        <v>16744.036179238301</v>
+        <v>880</v>
       </c>
       <c r="L7" t="s">
         <v>31</v>
@@ -852,7 +965,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>8192</v>
+        <v>2048</v>
       </c>
       <c r="D8" t="s">
         <v>37</v>
@@ -870,7 +983,7 @@
       </c>
       <c r="B9" s="4">
         <f>K9</f>
-        <v>58.75</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
@@ -883,7 +996,7 @@
       </c>
       <c r="K9">
         <f>(K5*K8)+1</f>
-        <v>58.75</v>
+        <v>29</v>
       </c>
       <c r="L9" t="s">
         <v>33</v>
@@ -907,7 +1020,7 @@
       </c>
       <c r="B12">
         <f>B5/2</f>
-        <v>22050</v>
+        <v>5512.5</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
@@ -937,7 +1050,7 @@
       </c>
       <c r="B14">
         <f>B8/2-1</f>
-        <v>4095</v>
+        <v>1023</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -960,12 +1073,16 @@
       <c r="F16" s="10" t="s">
         <v>16</v>
       </c>
+      <c r="G16" s="11">
+        <f>G17-(G18-G17)</f>
+        <v>9.6297027125000518</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>0</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="12">
         <f t="shared" ref="C17:C80" si="0">$B$6*POWER($B$11,B17)</f>
         <v>55</v>
       </c>
@@ -990,7 +1107,7 @@
         <f>B17+1</f>
         <v>1</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="12">
         <f t="shared" si="0"/>
         <v>60.724923252059675</v>
       </c>
@@ -1016,7 +1133,7 @@
         <f t="shared" ref="B19:B82" si="3">B18+1</f>
         <v>2</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="12">
         <f t="shared" si="0"/>
         <v>67.04575098124613</v>
       </c>
@@ -1042,7 +1159,7 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="12">
         <f t="shared" si="0"/>
         <v>74.024510594779571</v>
       </c>
@@ -1068,7 +1185,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="12">
         <f t="shared" si="0"/>
         <v>81.729685902532125</v>
       </c>
@@ -1094,7 +1211,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="12">
         <f t="shared" si="0"/>
         <v>90.236889160840121</v>
       </c>
@@ -1120,7 +1237,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="12">
         <f t="shared" si="0"/>
         <v>99.62960306902967</v>
       </c>
@@ -1146,7 +1263,7 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="12">
         <f t="shared" si="0"/>
         <v>109.99999999999991</v>
       </c>
@@ -1172,7 +1289,7 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="12">
         <f t="shared" si="0"/>
         <v>121.44984650411925</v>
       </c>
@@ -1198,7 +1315,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="12">
         <f t="shared" si="0"/>
         <v>134.09150196249217</v>
       </c>
@@ -1224,7 +1341,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="12">
         <f t="shared" si="0"/>
         <v>148.049021189559</v>
       </c>
@@ -1250,7 +1367,7 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="12">
         <f t="shared" si="0"/>
         <v>163.45937180506414</v>
       </c>
@@ -1276,7 +1393,7 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="12">
         <f t="shared" si="0"/>
         <v>180.4737783216801</v>
       </c>
@@ -1302,7 +1419,7 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="12">
         <f t="shared" si="0"/>
         <v>199.25920613805917</v>
       </c>
@@ -1328,7 +1445,7 @@
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="12">
         <f t="shared" si="0"/>
         <v>219.99999999999966</v>
       </c>
@@ -1354,7 +1471,7 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="12">
         <f t="shared" si="0"/>
         <v>242.8996930082383</v>
       </c>
@@ -1380,7 +1497,7 @@
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="12">
         <f t="shared" si="0"/>
         <v>268.18300392498412</v>
       </c>
@@ -1406,7 +1523,7 @@
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="C34" s="19">
+      <c r="C34" s="12">
         <f t="shared" si="0"/>
         <v>296.09804237911783</v>
       </c>
@@ -1432,7 +1549,7 @@
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C35" s="12">
         <f t="shared" si="0"/>
         <v>326.91874361012799</v>
       </c>
@@ -1458,7 +1575,7 @@
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="12">
         <f t="shared" si="0"/>
         <v>360.94755664335997</v>
       </c>
@@ -1484,7 +1601,7 @@
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="12">
         <f t="shared" si="0"/>
         <v>398.51841227611806</v>
       </c>
@@ -1510,7 +1627,7 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="C38" s="19">
+      <c r="C38" s="12">
         <f t="shared" si="0"/>
         <v>439.99999999999903</v>
       </c>
@@ -1536,7 +1653,7 @@
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="C39" s="19">
+      <c r="C39" s="12">
         <f t="shared" si="0"/>
         <v>485.79938601647632</v>
       </c>
@@ -1562,7 +1679,7 @@
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C40" s="12">
         <f t="shared" si="0"/>
         <v>536.3660078499679</v>
       </c>
@@ -1588,7 +1705,7 @@
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="C41" s="19">
+      <c r="C41" s="12">
         <f t="shared" si="0"/>
         <v>592.1960847582352</v>
       </c>
@@ -1614,7 +1731,7 @@
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="C42" s="19">
+      <c r="C42" s="12">
         <f t="shared" si="0"/>
         <v>653.83748722025553</v>
       </c>
@@ -1640,7 +1757,7 @@
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="C43" s="19">
+      <c r="C43" s="12">
         <f t="shared" si="0"/>
         <v>721.89511328671938</v>
       </c>
@@ -1666,7 +1783,7 @@
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="C44" s="19">
+      <c r="C44" s="12">
         <f t="shared" si="0"/>
         <v>797.03682455223554</v>
       </c>
@@ -1692,7 +1809,7 @@
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="C45" s="19">
+      <c r="C45" s="12">
         <f t="shared" si="0"/>
         <v>879.99999999999739</v>
       </c>
@@ -1718,7 +1835,7 @@
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="C46" s="19">
+      <c r="C46" s="12">
         <f t="shared" si="0"/>
         <v>971.59877203295184</v>
       </c>
@@ -1744,7 +1861,7 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C47" s="12">
         <f t="shared" si="0"/>
         <v>1072.7320156999349</v>
       </c>
@@ -1770,7 +1887,7 @@
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C48" s="12">
         <f t="shared" si="0"/>
         <v>1184.3921695164693</v>
       </c>
@@ -1796,7 +1913,7 @@
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C49" s="12">
         <f t="shared" si="0"/>
         <v>1307.6749744405101</v>
       </c>
@@ -1822,7 +1939,7 @@
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C50" s="12">
         <f t="shared" si="0"/>
         <v>1443.7902265734376</v>
       </c>
@@ -1848,7 +1965,7 @@
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="C51" s="19">
+      <c r="C51" s="12">
         <f t="shared" si="0"/>
         <v>1594.07364910447</v>
       </c>
@@ -1874,7 +1991,7 @@
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="C52" s="19">
+      <c r="C52" s="12">
         <f t="shared" si="0"/>
         <v>1759.9999999999934</v>
       </c>
@@ -1895,14 +2012,14 @@
         <v>343.95231611097302</v>
       </c>
       <c r="H52" s="14"/>
-      <c r="I52" s="20"/>
+      <c r="I52" s="19"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="6">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="C53" s="19">
+      <c r="C53" s="12">
         <f t="shared" si="0"/>
         <v>1943.1975440659021</v>
       </c>
@@ -1923,14 +2040,14 @@
         <v>379.75414542194551</v>
       </c>
       <c r="H53" s="14"/>
-      <c r="I53" s="20"/>
+      <c r="I53" s="19"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="6">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="C54" s="19">
+      <c r="C54" s="12">
         <f t="shared" si="0"/>
         <v>2145.4640313998684</v>
       </c>
@@ -1951,14 +2068,14 @@
         <v>419.28256973452994</v>
       </c>
       <c r="H54" s="14"/>
-      <c r="I54" s="20"/>
+      <c r="I54" s="19"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="6">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="C55" s="19">
+      <c r="C55" s="12">
         <f t="shared" si="0"/>
         <v>2368.7843390329372</v>
       </c>
@@ -1979,14 +2096,14 @@
         <v>462.92548851010343</v>
       </c>
       <c r="H55" s="14"/>
-      <c r="I55" s="20"/>
+      <c r="I55" s="19"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="6">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="C56" s="19">
+      <c r="C56" s="12">
         <f t="shared" si="0"/>
         <v>2615.3499488810185</v>
       </c>
@@ -2007,14 +2124,14 @@
         <v>511.11117747633205</v>
       </c>
       <c r="H56" s="14"/>
-      <c r="I56" s="20"/>
+      <c r="I56" s="19"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="6">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="C57" s="19">
+      <c r="C57" s="12">
         <f t="shared" si="0"/>
         <v>2887.580453146873</v>
       </c>
@@ -2035,14 +2152,14 @@
         <v>564.31249137309294</v>
       </c>
       <c r="H57" s="14"/>
-      <c r="I57" s="20"/>
+      <c r="I57" s="19"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="6">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="C58" s="19">
+      <c r="C58" s="12">
         <f t="shared" si="0"/>
         <v>3188.1472982089376</v>
       </c>
@@ -2063,14 +2180,14 @@
         <v>623.05150416017557</v>
       </c>
       <c r="H58" s="14"/>
-      <c r="I58" s="20"/>
+      <c r="I58" s="19"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="6">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="C59" s="19">
+      <c r="C59" s="12">
         <f t="shared" si="0"/>
         <v>3519.9999999999841</v>
       </c>
@@ -2091,14 +2208,14 @@
         <v>687.90463222194535</v>
       </c>
       <c r="H59" s="14"/>
-      <c r="I59" s="20"/>
+      <c r="I59" s="19"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="6">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="C60" s="19">
+      <c r="C60" s="12">
         <f t="shared" si="0"/>
         <v>3886.395088131801</v>
       </c>
@@ -2119,14 +2236,14 @@
         <v>759.50829084389034</v>
       </c>
       <c r="H60" s="14"/>
-      <c r="I60" s="20"/>
+      <c r="I60" s="19"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="6">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="C61" s="19">
+      <c r="C61" s="12">
         <f t="shared" si="0"/>
         <v>4290.9280627997332</v>
       </c>
@@ -2147,14 +2264,14 @@
         <v>838.56513946905932</v>
       </c>
       <c r="H61" s="14"/>
-      <c r="I61" s="20"/>
+      <c r="I61" s="19"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="6">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="C62" s="19">
+      <c r="C62" s="12">
         <f t="shared" si="0"/>
         <v>4737.5686780658707</v>
       </c>
@@ -2175,14 +2292,14 @@
         <v>925.85097702020619</v>
       </c>
       <c r="H62" s="14"/>
-      <c r="I62" s="20"/>
+      <c r="I62" s="19"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="6">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="C63" s="19">
+      <c r="C63" s="12">
         <f t="shared" si="0"/>
         <v>5230.6998977620324</v>
       </c>
@@ -2203,14 +2320,14 @@
         <v>1022.2223549526633</v>
       </c>
       <c r="H63" s="14"/>
-      <c r="I63" s="20"/>
+      <c r="I63" s="19"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="6">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="C64" s="19">
+      <c r="C64" s="12">
         <f t="shared" si="0"/>
         <v>5775.1609062937414</v>
       </c>
@@ -2231,14 +2348,14 @@
         <v>1128.6249827461852</v>
       </c>
       <c r="H64" s="14"/>
-      <c r="I64" s="20"/>
+      <c r="I64" s="19"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="6">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="C65" s="19">
+      <c r="C65" s="12">
         <f t="shared" si="0"/>
         <v>6376.2945964178707</v>
       </c>
@@ -2259,14 +2376,14 @@
         <v>1246.1030083203502</v>
       </c>
       <c r="H65" s="14"/>
-      <c r="I65" s="20"/>
+      <c r="I65" s="19"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="6">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="C66" s="19">
+      <c r="C66" s="12">
         <f t="shared" si="0"/>
         <v>7039.9999999999636</v>
       </c>
@@ -2292,7 +2409,7 @@
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="C67" s="19">
+      <c r="C67" s="12">
         <f t="shared" si="0"/>
         <v>7772.7901762635975</v>
       </c>
@@ -2318,7 +2435,7 @@
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
-      <c r="C68" s="19">
+      <c r="C68" s="12">
         <f t="shared" si="0"/>
         <v>8581.8561255994591</v>
       </c>
@@ -2344,7 +2461,7 @@
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="C69" s="19">
+      <c r="C69" s="12">
         <f t="shared" si="0"/>
         <v>9475.1373561317341</v>
       </c>
@@ -2370,7 +2487,7 @@
         <f t="shared" si="3"/>
         <v>53</v>
       </c>
-      <c r="C70" s="19">
+      <c r="C70" s="12">
         <f t="shared" si="0"/>
         <v>10461.399795524057</v>
       </c>
@@ -2396,7 +2513,7 @@
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
-      <c r="C71" s="19">
+      <c r="C71" s="12">
         <f t="shared" si="0"/>
         <v>11550.321812587476</v>
       </c>
@@ -2422,7 +2539,7 @@
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="C72" s="19">
+      <c r="C72" s="12">
         <f t="shared" si="0"/>
         <v>12752.589192835732</v>
       </c>
@@ -2448,7 +2565,7 @@
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="C73" s="19">
+      <c r="C73" s="12">
         <f t="shared" si="0"/>
         <v>14079.999999999915</v>
       </c>
@@ -2474,7 +2591,7 @@
         <f t="shared" si="3"/>
         <v>57</v>
       </c>
-      <c r="C74" s="19">
+      <c r="C74" s="12">
         <f t="shared" si="0"/>
         <v>15545.580352527182</v>
       </c>
@@ -2500,7 +2617,7 @@
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="C75" s="19">
+      <c r="C75" s="12">
         <f t="shared" si="0"/>
         <v>17163.712251198907</v>
       </c>
@@ -2526,7 +2643,7 @@
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="C76" s="19">
+      <c r="C76" s="12">
         <f t="shared" si="0"/>
         <v>18950.274712263454</v>
       </c>
@@ -2552,7 +2669,7 @@
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="C77" s="19">
+      <c r="C77" s="12">
         <f t="shared" si="0"/>
         <v>20922.7995910481</v>
       </c>
@@ -2578,7 +2695,7 @@
         <f t="shared" si="3"/>
         <v>61</v>
       </c>
-      <c r="C78" s="19">
+      <c r="C78" s="12">
         <f t="shared" si="0"/>
         <v>23100.643625174933</v>
       </c>
@@ -2604,7 +2721,7 @@
         <f t="shared" si="3"/>
         <v>62</v>
       </c>
-      <c r="C79" s="19">
+      <c r="C79" s="12">
         <f t="shared" si="0"/>
         <v>25505.178385671439</v>
       </c>
@@ -2630,7 +2747,7 @@
         <f t="shared" si="3"/>
         <v>63</v>
       </c>
-      <c r="C80" s="19">
+      <c r="C80" s="12">
         <f t="shared" si="0"/>
         <v>28159.999999999807</v>
       </c>
@@ -2656,12 +2773,12 @@
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="C81" s="19">
-        <f t="shared" ref="C81:C98" si="6">$B$6*POWER($B$11,B81)</f>
+      <c r="C81" s="12">
+        <f t="shared" ref="C81:C115" si="6">$B$6*POWER($B$11,B81)</f>
         <v>31091.160705054339</v>
       </c>
       <c r="D81" s="7">
-        <f t="shared" ref="D81:D98" si="7">C81/$B$13</f>
+        <f t="shared" ref="D81:D115" si="7">C81/$B$13</f>
         <v>5775.482732331182</v>
       </c>
       <c r="E81" s="15">
@@ -2682,7 +2799,7 @@
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="C82" s="19">
+      <c r="C82" s="12">
         <f t="shared" si="6"/>
         <v>34327.424502397786</v>
       </c>
@@ -2699,7 +2816,7 @@
         <v>6708.5211157524591</v>
       </c>
       <c r="G82" s="11">
-        <f t="shared" ref="G82:G98" si="8">F82</f>
+        <f t="shared" ref="G82:G115" si="8">F82</f>
         <v>6708.5211157524591</v>
       </c>
     </row>
@@ -2708,7 +2825,7 @@
         <f t="shared" ref="B83:B115" si="9">B82+1</f>
         <v>66</v>
       </c>
-      <c r="C83" s="19">
+      <c r="C83" s="12">
         <f t="shared" si="6"/>
         <v>37900.549424526878</v>
       </c>
@@ -2717,11 +2834,11 @@
         <v>7040.3923103338821</v>
       </c>
       <c r="E83" s="15">
-        <f t="shared" ref="E83:E98" si="10">F82</f>
+        <f t="shared" ref="E83:E115" si="10">F82</f>
         <v>6708.5211157524591</v>
       </c>
       <c r="F83" s="16">
-        <f t="shared" ref="F83:F98" si="11">((D84-D83)/2)+D83</f>
+        <f t="shared" ref="F83:F115" si="11">((D84-D83)/2)+D83</f>
         <v>7406.8078161616322</v>
       </c>
       <c r="G83" s="11">
@@ -2734,7 +2851,7 @@
         <f t="shared" si="9"/>
         <v>67</v>
       </c>
-      <c r="C84" s="19">
+      <c r="C84" s="12">
         <f t="shared" si="6"/>
         <v>41845.599182096164</v>
       </c>
@@ -2760,7 +2877,7 @@
         <f t="shared" si="9"/>
         <v>68</v>
       </c>
-      <c r="C85" s="19">
+      <c r="C85" s="12">
         <f t="shared" si="6"/>
         <v>46201.287250349829</v>
       </c>
@@ -2786,7 +2903,7 @@
         <f t="shared" si="9"/>
         <v>69</v>
       </c>
-      <c r="C86" s="19">
+      <c r="C86" s="12">
         <f t="shared" si="6"/>
         <v>51010.356771342842</v>
       </c>
@@ -2812,7 +2929,7 @@
         <f t="shared" si="9"/>
         <v>70</v>
       </c>
-      <c r="C87" s="19">
+      <c r="C87" s="12">
         <f t="shared" si="6"/>
         <v>56319.999999999571</v>
       </c>
@@ -2838,7 +2955,7 @@
         <f t="shared" si="9"/>
         <v>71</v>
       </c>
-      <c r="C88" s="19">
+      <c r="C88" s="12">
         <f t="shared" si="6"/>
         <v>62182.321410108634</v>
       </c>
@@ -2864,7 +2981,7 @@
         <f t="shared" si="9"/>
         <v>72</v>
       </c>
-      <c r="C89" s="19">
+      <c r="C89" s="12">
         <f t="shared" si="6"/>
         <v>68654.849004795513</v>
       </c>
@@ -2890,7 +3007,7 @@
         <f t="shared" si="9"/>
         <v>73</v>
       </c>
-      <c r="C90" s="19">
+      <c r="C90" s="12">
         <f t="shared" si="6"/>
         <v>75801.098849053698</v>
       </c>
@@ -2916,7 +3033,7 @@
         <f t="shared" si="9"/>
         <v>74</v>
       </c>
-      <c r="C91" s="19">
+      <c r="C91" s="12">
         <f t="shared" si="6"/>
         <v>83691.198364192256</v>
       </c>
@@ -2942,7 +3059,7 @@
         <f t="shared" si="9"/>
         <v>75</v>
       </c>
-      <c r="C92" s="19">
+      <c r="C92" s="12">
         <f t="shared" si="6"/>
         <v>92402.574500699586</v>
       </c>
@@ -2968,7 +3085,7 @@
         <f t="shared" si="9"/>
         <v>76</v>
       </c>
-      <c r="C93" s="19">
+      <c r="C93" s="12">
         <f t="shared" si="6"/>
         <v>102020.7135426856</v>
       </c>
@@ -2994,7 +3111,7 @@
         <f t="shared" si="9"/>
         <v>77</v>
       </c>
-      <c r="C94" s="19">
+      <c r="C94" s="12">
         <f t="shared" si="6"/>
         <v>112639.99999999907</v>
       </c>
@@ -3020,7 +3137,7 @@
         <f t="shared" si="9"/>
         <v>78</v>
       </c>
-      <c r="C95" s="19">
+      <c r="C95" s="12">
         <f t="shared" si="6"/>
         <v>124364.64282021717</v>
       </c>
@@ -3046,7 +3163,7 @@
         <f t="shared" si="9"/>
         <v>79</v>
       </c>
-      <c r="C96" s="19">
+      <c r="C96" s="12">
         <f t="shared" si="6"/>
         <v>137309.69800959094</v>
       </c>
@@ -3072,7 +3189,7 @@
         <f t="shared" si="9"/>
         <v>80</v>
       </c>
-      <c r="C97" s="19">
+      <c r="C97" s="12">
         <f t="shared" si="6"/>
         <v>151602.19769810731</v>
       </c>
@@ -3101,7 +3218,7 @@
         <f t="shared" si="9"/>
         <v>81</v>
       </c>
-      <c r="C98" s="19">
+      <c r="C98" s="12">
         <f t="shared" si="6"/>
         <v>167382.39672838442</v>
       </c>
@@ -3127,24 +3244,24 @@
         <f t="shared" si="9"/>
         <v>82</v>
       </c>
-      <c r="C99" s="19">
-        <f t="shared" ref="C99:C106" si="12">$B$6*POWER($B$11,B99)</f>
+      <c r="C99" s="12">
+        <f t="shared" si="6"/>
         <v>184805.14900139903</v>
       </c>
       <c r="D99" s="7">
-        <f t="shared" ref="D99:D106" si="13">C99/$B$13</f>
+        <f t="shared" si="7"/>
         <v>34329.337429012718</v>
       </c>
       <c r="E99" s="15">
-        <f t="shared" ref="E99:E106" si="14">F98</f>
+        <f t="shared" si="10"/>
         <v>32711.115358485105</v>
       </c>
       <c r="F99" s="16">
-        <f t="shared" ref="F99:F106" si="15">((D100-D99)/2)+D99</f>
+        <f t="shared" si="11"/>
         <v>36115.999447877781</v>
       </c>
       <c r="G99" s="11">
-        <f t="shared" ref="G99:G106" si="16">F99</f>
+        <f t="shared" si="8"/>
         <v>36115.999447877781</v>
       </c>
     </row>
@@ -3153,24 +3270,24 @@
         <f t="shared" si="9"/>
         <v>83</v>
       </c>
-      <c r="C100" s="19">
-        <f t="shared" si="12"/>
+      <c r="C100" s="12">
+        <f t="shared" si="6"/>
         <v>204041.42708537108</v>
       </c>
       <c r="D100" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>37902.661466742851</v>
       </c>
       <c r="E100" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>36115.999447877781</v>
       </c>
       <c r="F100" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>39875.296266251054</v>
       </c>
       <c r="G100" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>39875.296266251054</v>
       </c>
     </row>
@@ -3179,24 +3296,24 @@
         <f t="shared" si="9"/>
         <v>84</v>
       </c>
-      <c r="C101" s="19">
-        <f t="shared" si="12"/>
+      <c r="C101" s="12">
+        <f t="shared" si="6"/>
         <v>225279.99999999796</v>
       </c>
       <c r="D101" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>41847.931065759258</v>
       </c>
       <c r="E101" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>39875.296266251054</v>
       </c>
       <c r="F101" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>44025.896462204313</v>
       </c>
       <c r="G101" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>44025.896462204313</v>
       </c>
     </row>
@@ -3205,24 +3322,24 @@
         <f t="shared" si="9"/>
         <v>85</v>
       </c>
-      <c r="C102" s="19">
-        <f t="shared" si="12"/>
+      <c r="C102" s="12">
+        <f t="shared" si="6"/>
         <v>248729.28564043419</v>
       </c>
       <c r="D102" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>46203.861858649361</v>
       </c>
       <c r="E102" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>44025.896462204313</v>
       </c>
       <c r="F102" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>48608.530614008763</v>
       </c>
       <c r="G102" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>48608.530614008763</v>
       </c>
     </row>
@@ -3231,24 +3348,24 @@
         <f t="shared" si="9"/>
         <v>86</v>
       </c>
-      <c r="C103" s="19">
-        <f t="shared" si="12"/>
+      <c r="C103" s="12">
+        <f t="shared" si="6"/>
         <v>274619.3960191817</v>
       </c>
       <c r="D103" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>51013.199369368172</v>
       </c>
       <c r="E103" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>48608.530614008763</v>
       </c>
       <c r="F103" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>53668.168926019549</v>
       </c>
       <c r="G103" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>53668.168926019549</v>
       </c>
     </row>
@@ -3257,24 +3374,24 @@
         <f t="shared" si="9"/>
         <v>87</v>
       </c>
-      <c r="C104" s="19">
-        <f t="shared" si="12"/>
+      <c r="C104" s="12">
+        <f t="shared" si="6"/>
         <v>303204.39539621433</v>
       </c>
       <c r="D104" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>56323.138482670925</v>
       </c>
       <c r="E104" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>53668.168926019549</v>
       </c>
       <c r="F104" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>59254.462529292927</v>
       </c>
       <c r="G104" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>59254.462529292927</v>
       </c>
     </row>
@@ -3283,24 +3400,24 @@
         <f t="shared" si="9"/>
         <v>88</v>
       </c>
-      <c r="C105" s="19">
-        <f t="shared" si="12"/>
+      <c r="C105" s="12">
+        <f t="shared" si="6"/>
         <v>334764.79345676856</v>
       </c>
       <c r="D105" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>62185.786575914921</v>
       </c>
       <c r="E105" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>59254.462529292927</v>
       </c>
       <c r="F105" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>65422.230716970153</v>
       </c>
       <c r="G105" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>65422.230716970153</v>
       </c>
     </row>
@@ -3309,24 +3426,24 @@
         <f t="shared" si="9"/>
         <v>89</v>
       </c>
-      <c r="C106" s="19">
-        <f t="shared" si="12"/>
+      <c r="C106" s="12">
+        <f t="shared" si="6"/>
         <v>369610.29800279782</v>
       </c>
       <c r="D106" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>68658.674858025392</v>
       </c>
       <c r="E106" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>65422.230716970153</v>
       </c>
       <c r="F106" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>72231.998895755518</v>
       </c>
       <c r="G106" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>72231.998895755518</v>
       </c>
     </row>
@@ -3335,24 +3452,24 @@
         <f t="shared" si="9"/>
         <v>90</v>
       </c>
-      <c r="C107" s="19">
-        <f t="shared" ref="C107:C115" si="17">$B$6*POWER($B$11,B107)</f>
+      <c r="C107" s="12">
+        <f t="shared" si="6"/>
         <v>408082.8541707418</v>
       </c>
       <c r="D107" s="7">
-        <f t="shared" ref="D107:D115" si="18">C107/$B$13</f>
+        <f t="shared" si="7"/>
         <v>75805.322933485644</v>
       </c>
       <c r="E107" s="15">
-        <f t="shared" ref="E107:E115" si="19">F106</f>
+        <f t="shared" si="10"/>
         <v>72231.998895755518</v>
       </c>
       <c r="F107" s="16">
-        <f t="shared" ref="F107:F115" si="20">((D108-D107)/2)+D107</f>
+        <f t="shared" si="11"/>
         <v>79750.592532502051</v>
       </c>
       <c r="G107" s="11">
-        <f t="shared" ref="G107:G115" si="21">F107</f>
+        <f t="shared" si="8"/>
         <v>79750.592532502051</v>
       </c>
     </row>
@@ -3361,24 +3478,24 @@
         <f t="shared" si="9"/>
         <v>91</v>
       </c>
-      <c r="C108" s="19">
-        <f t="shared" si="17"/>
+      <c r="C108" s="12">
+        <f t="shared" si="6"/>
         <v>450559.99999999558</v>
       </c>
       <c r="D108" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>83695.862131518457</v>
       </c>
       <c r="E108" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>79750.592532502051</v>
       </c>
       <c r="F108" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>88051.792924408554</v>
       </c>
       <c r="G108" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="8"/>
         <v>88051.792924408554</v>
       </c>
     </row>
@@ -3387,24 +3504,24 @@
         <f t="shared" si="9"/>
         <v>92</v>
       </c>
-      <c r="C109" s="19">
-        <f t="shared" si="17"/>
+      <c r="C109" s="12">
+        <f t="shared" si="6"/>
         <v>497458.57128086797</v>
       </c>
       <c r="D109" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>92407.72371729865</v>
       </c>
       <c r="E109" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>88051.792924408554</v>
       </c>
       <c r="F109" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>97217.061228017454</v>
       </c>
       <c r="G109" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="8"/>
         <v>97217.061228017454</v>
       </c>
     </row>
@@ -3413,24 +3530,24 @@
         <f t="shared" si="9"/>
         <v>93</v>
       </c>
-      <c r="C110" s="19">
-        <f t="shared" si="17"/>
+      <c r="C110" s="12">
+        <f t="shared" si="6"/>
         <v>549238.79203836294</v>
       </c>
       <c r="D110" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>102026.39873873626</v>
       </c>
       <c r="E110" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>97217.061228017454</v>
       </c>
       <c r="F110" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>107336.33785203901</v>
       </c>
       <c r="G110" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="8"/>
         <v>107336.33785203901</v>
       </c>
     </row>
@@ -3439,24 +3556,24 @@
         <f t="shared" si="9"/>
         <v>94</v>
       </c>
-      <c r="C111" s="19">
-        <f t="shared" si="17"/>
+      <c r="C111" s="12">
+        <f t="shared" si="6"/>
         <v>606408.79079242819</v>
       </c>
       <c r="D111" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>112646.27696534176</v>
       </c>
       <c r="E111" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>107336.33785203901</v>
       </c>
       <c r="F111" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>118508.92505858575</v>
       </c>
       <c r="G111" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="8"/>
         <v>118508.92505858575</v>
       </c>
     </row>
@@ -3465,24 +3582,24 @@
         <f t="shared" si="9"/>
         <v>95</v>
       </c>
-      <c r="C112" s="19">
-        <f t="shared" si="17"/>
+      <c r="C112" s="12">
+        <f t="shared" si="6"/>
         <v>669529.58691353654</v>
       </c>
       <c r="D112" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>124371.57315182974</v>
       </c>
       <c r="E112" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>118508.92505858575</v>
       </c>
       <c r="F112" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>130844.4614339402</v>
       </c>
       <c r="G112" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="8"/>
         <v>130844.4614339402</v>
       </c>
     </row>
@@ -3491,24 +3608,24 @@
         <f t="shared" si="9"/>
         <v>96</v>
       </c>
-      <c r="C113" s="19">
-        <f t="shared" si="17"/>
+      <c r="C113" s="12">
+        <f t="shared" si="6"/>
         <v>739220.59600559506</v>
       </c>
       <c r="D113" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>137317.34971605067</v>
       </c>
       <c r="E113" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>130844.4614339402</v>
       </c>
       <c r="F113" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>144463.99779151095</v>
       </c>
       <c r="G113" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="8"/>
         <v>144463.99779151095</v>
       </c>
     </row>
@@ -3517,24 +3634,24 @@
         <f t="shared" si="9"/>
         <v>97</v>
       </c>
-      <c r="C114" s="19">
-        <f t="shared" si="17"/>
+      <c r="C114" s="12">
+        <f t="shared" si="6"/>
         <v>816165.70834148314</v>
       </c>
       <c r="D114" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>151610.6458669712</v>
       </c>
       <c r="E114" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>144463.99779151095</v>
       </c>
       <c r="F114" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>159501.18506500399</v>
       </c>
       <c r="G114" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="8"/>
         <v>159501.18506500399</v>
       </c>
     </row>
@@ -3543,68 +3660,65 @@
         <f t="shared" si="9"/>
         <v>98</v>
       </c>
-      <c r="C115" s="19">
-        <f t="shared" si="17"/>
+      <c r="C115" s="12">
+        <f t="shared" si="6"/>
         <v>901119.99999999045</v>
       </c>
       <c r="D115" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>167391.72426303677</v>
       </c>
       <c r="E115" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>159501.18506500399</v>
       </c>
       <c r="F115" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>83695.862131518385</v>
       </c>
       <c r="G115" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="8"/>
         <v>83695.862131518385</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="H52:H65">
-    <sortCondition ref="H41"/>
-  </sortState>
   <conditionalFormatting sqref="B17:F17">
-    <cfRule type="expression" dxfId="16" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>$B$17&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:F45">
-    <cfRule type="expression" dxfId="15" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>$B18&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:F74">
-    <cfRule type="expression" dxfId="14" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$B46&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:F80">
-    <cfRule type="expression" dxfId="13" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$B75&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83:F98">
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$B83&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81:F82">
-    <cfRule type="expression" dxfId="11" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$B81&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:F106">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$B99&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107:F115">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$B107&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3615,16 +3729,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L99"/>
+  <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J97" sqref="J97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="2" max="12" width="8.5703125" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
@@ -3648,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="2">
-        <v>36000</v>
+        <v>44100</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -3657,7 +3772,7 @@
         <v>3</v>
       </c>
       <c r="K5">
-        <v>8.25</v>
+        <v>4.2</v>
       </c>
       <c r="L5" t="s">
         <v>29</v>
@@ -3668,17 +3783,17 @@
         <v>9</v>
       </c>
       <c r="B6" s="3">
-        <v>55</v>
+        <v>880</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="K6" s="14">
         <f>POWER(2,K5)</f>
-        <v>304.43702144069641</v>
+        <v>18.379173679952558</v>
       </c>
       <c r="L6" t="s">
         <v>30</v>
@@ -3690,17 +3805,17 @@
       </c>
       <c r="B7" s="17">
         <f>K7</f>
-        <v>16744.036179238301</v>
+        <v>16173.67283835825</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="K7" s="14">
         <f>K6*B6</f>
-        <v>16744.036179238301</v>
+        <v>16173.67283835825</v>
       </c>
       <c r="L7" t="s">
         <v>31</v>
@@ -3711,10 +3826,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>4096</v>
+        <v>2048</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="K8">
         <v>7</v>
@@ -3729,7 +3844,7 @@
       </c>
       <c r="B9" s="4">
         <f>K9</f>
-        <v>58.75</v>
+        <v>30.400000000000002</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
@@ -3742,7 +3857,7 @@
       </c>
       <c r="K9">
         <f>(K5*K8)+1</f>
-        <v>58.75</v>
+        <v>30.400000000000002</v>
       </c>
       <c r="L9" t="s">
         <v>33</v>
@@ -3766,7 +3881,7 @@
       </c>
       <c r="B12">
         <f>B5/2</f>
-        <v>18000</v>
+        <v>22050</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
@@ -3781,7 +3896,7 @@
       </c>
       <c r="B13">
         <f>B5/B8</f>
-        <v>8.7890625</v>
+        <v>21.533203125</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -3796,7 +3911,7 @@
       </c>
       <c r="B14">
         <f>B8/2-1</f>
-        <v>2047</v>
+        <v>1023</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -3819,29 +3934,33 @@
       <c r="F16" s="10" t="s">
         <v>16</v>
       </c>
+      <c r="G16" s="11">
+        <f>G17-(G18-G17)</f>
+        <v>38.518810850000207</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>0</v>
       </c>
       <c r="C17" s="12">
-        <f t="shared" ref="C17:C74" si="0">$B$6*POWER($B$11,B17)</f>
-        <v>55</v>
+        <f t="shared" ref="C17:C80" si="0">$B$6*POWER($B$11,B17)</f>
+        <v>880</v>
       </c>
       <c r="D17" s="7">
-        <f t="shared" ref="D17:D74" si="1">C17/$B$13</f>
-        <v>6.2577777777777781</v>
+        <f t="shared" ref="D17:D80" si="1">C17/$B$13</f>
+        <v>40.867120181405895</v>
       </c>
       <c r="E17" s="15">
         <v>0</v>
       </c>
       <c r="F17" s="16">
         <f>((D18-D17)/2)+D17</f>
-        <v>6.5834623005616173</v>
+        <v>42.994039513871783</v>
       </c>
       <c r="G17" s="11">
         <f>F17</f>
-        <v>6.5834623005616173</v>
+        <v>42.994039513871783</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -3851,6 +3970,5722 @@
       </c>
       <c r="C18" s="12">
         <f t="shared" si="0"/>
+        <v>971.5987720329548</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="1"/>
+        <v>45.120958846337672</v>
+      </c>
+      <c r="E18" s="15">
+        <f>F17</f>
+        <v>42.994039513871783</v>
+      </c>
+      <c r="F18" s="16">
+        <f>((D19-D18)/2)+D18</f>
+        <v>47.469268177743359</v>
+      </c>
+      <c r="G18" s="11">
+        <f t="shared" ref="G18:G81" si="2">F18</f>
+        <v>47.469268177743359</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="6">
+        <f t="shared" ref="B19:B82" si="3">B18+1</f>
+        <v>2</v>
+      </c>
+      <c r="C19" s="12">
+        <f t="shared" si="0"/>
+        <v>1072.7320156999381</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="1"/>
+        <v>49.817577509149054</v>
+      </c>
+      <c r="E19" s="15">
+        <f t="shared" ref="E19:E82" si="4">F18</f>
+        <v>47.469268177743359</v>
+      </c>
+      <c r="F19" s="16">
+        <f t="shared" ref="F19:F82" si="5">((D20-D19)/2)+D19</f>
+        <v>52.410321216816442</v>
+      </c>
+      <c r="G19" s="11">
+        <f t="shared" si="2"/>
+        <v>52.410321216816442</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="C20" s="12">
+        <f t="shared" si="0"/>
+        <v>1184.3921695164731</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" si="1"/>
+        <v>55.00306492448383</v>
+      </c>
+      <c r="E20" s="15">
+        <f t="shared" si="4"/>
+        <v>52.410321216816442</v>
+      </c>
+      <c r="F20" s="16">
+        <f t="shared" si="5"/>
+        <v>57.86568606376315</v>
+      </c>
+      <c r="G20" s="11">
+        <f t="shared" si="2"/>
+        <v>57.86568606376315</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="C21" s="12">
+        <f t="shared" si="0"/>
+        <v>1307.674974440514</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="1"/>
+        <v>60.728307203042462</v>
+      </c>
+      <c r="E21" s="15">
+        <f t="shared" si="4"/>
+        <v>57.86568606376315</v>
+      </c>
+      <c r="F21" s="16">
+        <f t="shared" si="5"/>
+        <v>63.88889718454174</v>
+      </c>
+      <c r="G21" s="11">
+        <f t="shared" si="2"/>
+        <v>63.88889718454174</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="6">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C22" s="12">
+        <f t="shared" si="0"/>
+        <v>1443.7902265734419</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="1"/>
+        <v>67.049487166041018</v>
+      </c>
+      <c r="E22" s="15">
+        <f t="shared" si="4"/>
+        <v>63.88889718454174</v>
+      </c>
+      <c r="F22" s="16">
+        <f t="shared" si="5"/>
+        <v>70.539061421636887</v>
+      </c>
+      <c r="G22" s="11">
+        <f t="shared" si="2"/>
+        <v>70.539061421636887</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="6">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="C23" s="12">
+        <f t="shared" si="0"/>
+        <v>1594.0736491044747</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="1"/>
+        <v>74.028635677232742</v>
+      </c>
+      <c r="E23" s="15">
+        <f t="shared" si="4"/>
+        <v>70.539061421636887</v>
+      </c>
+      <c r="F23" s="16">
+        <f t="shared" si="5"/>
+        <v>77.881438020022244</v>
+      </c>
+      <c r="G23" s="11">
+        <f t="shared" si="2"/>
+        <v>77.881438020022244</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="6">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="C24" s="12">
+        <f t="shared" si="0"/>
+        <v>1759.9999999999986</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="1"/>
+        <v>81.734240362811732</v>
+      </c>
+      <c r="E24" s="15">
+        <f t="shared" si="4"/>
+        <v>77.881438020022244</v>
+      </c>
+      <c r="F24" s="16">
+        <f t="shared" si="5"/>
+        <v>85.98807902774351</v>
+      </c>
+      <c r="G24" s="11">
+        <f t="shared" si="2"/>
+        <v>85.98807902774351</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="6">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="C25" s="12">
+        <f t="shared" si="0"/>
+        <v>1943.197544065908</v>
+      </c>
+      <c r="D25" s="7">
+        <f t="shared" si="1"/>
+        <v>90.241917692675273</v>
+      </c>
+      <c r="E25" s="15">
+        <f t="shared" si="4"/>
+        <v>85.98807902774351</v>
+      </c>
+      <c r="F25" s="16">
+        <f t="shared" si="5"/>
+        <v>94.938536355486661</v>
+      </c>
+      <c r="G25" s="11">
+        <f t="shared" si="2"/>
+        <v>94.938536355486661</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="6">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="C26" s="12">
+        <f t="shared" si="0"/>
+        <v>2145.4640313998748</v>
+      </c>
+      <c r="D26" s="7">
+        <f t="shared" si="1"/>
+        <v>99.635155018298036</v>
+      </c>
+      <c r="E26" s="15">
+        <f t="shared" si="4"/>
+        <v>94.938536355486661</v>
+      </c>
+      <c r="F26" s="16">
+        <f t="shared" si="5"/>
+        <v>104.8206424336328</v>
+      </c>
+      <c r="G26" s="11">
+        <f t="shared" si="2"/>
+        <v>104.8206424336328</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="6">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="C27" s="12">
+        <f t="shared" si="0"/>
+        <v>2368.784339032944</v>
+      </c>
+      <c r="D27" s="7">
+        <f t="shared" si="1"/>
+        <v>110.00612984896756</v>
+      </c>
+      <c r="E27" s="15">
+        <f t="shared" si="4"/>
+        <v>104.8206424336328</v>
+      </c>
+      <c r="F27" s="16">
+        <f t="shared" si="5"/>
+        <v>115.7313721275262</v>
+      </c>
+      <c r="G27" s="11">
+        <f t="shared" si="2"/>
+        <v>115.7313721275262</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="6">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="C28" s="12">
+        <f t="shared" si="0"/>
+        <v>2615.3499488810262</v>
+      </c>
+      <c r="D28" s="7">
+        <f t="shared" si="1"/>
+        <v>121.45661440608484</v>
+      </c>
+      <c r="E28" s="15">
+        <f t="shared" si="4"/>
+        <v>115.7313721275262</v>
+      </c>
+      <c r="F28" s="16">
+        <f t="shared" si="5"/>
+        <v>127.7777943690834</v>
+      </c>
+      <c r="G28" s="11">
+        <f t="shared" si="2"/>
+        <v>127.7777943690834</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="6">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="C29" s="12">
+        <f t="shared" si="0"/>
+        <v>2887.5804531468816</v>
+      </c>
+      <c r="D29" s="7">
+        <f t="shared" si="1"/>
+        <v>134.09897433208195</v>
+      </c>
+      <c r="E29" s="15">
+        <f t="shared" si="4"/>
+        <v>127.7777943690834</v>
+      </c>
+      <c r="F29" s="16">
+        <f t="shared" si="5"/>
+        <v>141.07812284327366</v>
+      </c>
+      <c r="G29" s="11">
+        <f t="shared" si="2"/>
+        <v>141.07812284327366</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="6">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="C30" s="12">
+        <f t="shared" si="0"/>
+        <v>3188.1472982089467</v>
+      </c>
+      <c r="D30" s="7">
+        <f t="shared" si="1"/>
+        <v>148.05727135446537</v>
+      </c>
+      <c r="E30" s="15">
+        <f t="shared" si="4"/>
+        <v>141.07812284327366</v>
+      </c>
+      <c r="F30" s="16">
+        <f t="shared" si="5"/>
+        <v>155.76287604004435</v>
+      </c>
+      <c r="G30" s="11">
+        <f t="shared" si="2"/>
+        <v>155.76287604004435</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="6">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="C31" s="12">
+        <f t="shared" si="0"/>
+        <v>3519.9999999999945</v>
+      </c>
+      <c r="D31" s="7">
+        <f t="shared" si="1"/>
+        <v>163.46848072562332</v>
+      </c>
+      <c r="E31" s="15">
+        <f t="shared" si="4"/>
+        <v>155.76287604004435</v>
+      </c>
+      <c r="F31" s="16">
+        <f t="shared" si="5"/>
+        <v>171.97615805548685</v>
+      </c>
+      <c r="G31" s="11">
+        <f t="shared" si="2"/>
+        <v>171.97615805548685</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="6">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="C32" s="12">
+        <f t="shared" si="0"/>
+        <v>3886.3950881318128</v>
+      </c>
+      <c r="D32" s="7">
+        <f t="shared" si="1"/>
+        <v>180.4838353853504</v>
+      </c>
+      <c r="E32" s="15">
+        <f t="shared" si="4"/>
+        <v>171.97615805548685</v>
+      </c>
+      <c r="F32" s="16">
+        <f t="shared" si="5"/>
+        <v>189.87707271097315</v>
+      </c>
+      <c r="G32" s="11">
+        <f t="shared" si="2"/>
+        <v>189.87707271097315</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="6">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="C33" s="12">
+        <f t="shared" si="0"/>
+        <v>4290.9280627997459</v>
+      </c>
+      <c r="D33" s="7">
+        <f t="shared" si="1"/>
+        <v>199.2703100365959</v>
+      </c>
+      <c r="E33" s="15">
+        <f t="shared" si="4"/>
+        <v>189.87707271097315</v>
+      </c>
+      <c r="F33" s="16">
+        <f t="shared" si="5"/>
+        <v>209.64128486726543</v>
+      </c>
+      <c r="G33" s="11">
+        <f t="shared" si="2"/>
+        <v>209.64128486726543</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="6">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="C34" s="12">
+        <f t="shared" si="0"/>
+        <v>4737.5686780658853</v>
+      </c>
+      <c r="D34" s="7">
+        <f t="shared" si="1"/>
+        <v>220.01225969793498</v>
+      </c>
+      <c r="E34" s="15">
+        <f t="shared" si="4"/>
+        <v>209.64128486726543</v>
+      </c>
+      <c r="F34" s="16">
+        <f t="shared" si="5"/>
+        <v>231.46274425505223</v>
+      </c>
+      <c r="G34" s="11">
+        <f t="shared" si="2"/>
+        <v>231.46274425505223</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="6">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="C35" s="12">
+        <f t="shared" si="0"/>
+        <v>5230.6998977620478</v>
+      </c>
+      <c r="D35" s="7">
+        <f t="shared" si="1"/>
+        <v>242.91322881216948</v>
+      </c>
+      <c r="E35" s="15">
+        <f t="shared" si="4"/>
+        <v>231.46274425505223</v>
+      </c>
+      <c r="F35" s="16">
+        <f t="shared" si="5"/>
+        <v>255.55558873816659</v>
+      </c>
+      <c r="G35" s="11">
+        <f t="shared" si="2"/>
+        <v>255.55558873816659</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="6">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="C36" s="12">
+        <f t="shared" si="0"/>
+        <v>5775.1609062937596</v>
+      </c>
+      <c r="D36" s="7">
+        <f t="shared" si="1"/>
+        <v>268.19794866416373</v>
+      </c>
+      <c r="E36" s="15">
+        <f t="shared" si="4"/>
+        <v>255.55558873816659</v>
+      </c>
+      <c r="F36" s="16">
+        <f t="shared" si="5"/>
+        <v>282.15624568654709</v>
+      </c>
+      <c r="G36" s="11">
+        <f t="shared" si="2"/>
+        <v>282.15624568654709</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="C37" s="12">
+        <f t="shared" si="0"/>
+        <v>6376.2945964178889</v>
+      </c>
+      <c r="D37" s="7">
+        <f t="shared" si="1"/>
+        <v>296.11454270893051</v>
+      </c>
+      <c r="E37" s="15">
+        <f t="shared" si="4"/>
+        <v>282.15624568654709</v>
+      </c>
+      <c r="F37" s="16">
+        <f t="shared" si="5"/>
+        <v>311.52575208008852</v>
+      </c>
+      <c r="G37" s="11">
+        <f t="shared" si="2"/>
+        <v>311.52575208008852</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="6">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="C38" s="12">
+        <f t="shared" si="0"/>
+        <v>7039.9999999999845</v>
+      </c>
+      <c r="D38" s="7">
+        <f t="shared" si="1"/>
+        <v>326.93696145124648</v>
+      </c>
+      <c r="E38" s="15">
+        <f t="shared" si="4"/>
+        <v>311.52575208008852</v>
+      </c>
+      <c r="F38" s="16">
+        <f t="shared" si="5"/>
+        <v>343.95231611097353</v>
+      </c>
+      <c r="G38" s="11">
+        <f t="shared" si="2"/>
+        <v>343.95231611097353</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="6">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="C39" s="12">
+        <f t="shared" si="0"/>
+        <v>7772.7901762636211</v>
+      </c>
+      <c r="D39" s="7">
+        <f t="shared" si="1"/>
+        <v>360.96767077070058</v>
+      </c>
+      <c r="E39" s="15">
+        <f t="shared" si="4"/>
+        <v>343.95231611097353</v>
+      </c>
+      <c r="F39" s="16">
+        <f t="shared" si="5"/>
+        <v>379.75414542194608</v>
+      </c>
+      <c r="G39" s="11">
+        <f t="shared" si="2"/>
+        <v>379.75414542194608</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="6">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="C40" s="12">
+        <f t="shared" si="0"/>
+        <v>8581.8561255994864</v>
+      </c>
+      <c r="D40" s="7">
+        <f t="shared" si="1"/>
+        <v>398.54062007319158</v>
+      </c>
+      <c r="E40" s="15">
+        <f t="shared" si="4"/>
+        <v>379.75414542194608</v>
+      </c>
+      <c r="F40" s="16">
+        <f t="shared" si="5"/>
+        <v>419.28256973453063</v>
+      </c>
+      <c r="G40" s="11">
+        <f t="shared" si="2"/>
+        <v>419.28256973453063</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="6">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="C41" s="12">
+        <f t="shared" si="0"/>
+        <v>9475.1373561317632</v>
+      </c>
+      <c r="D41" s="7">
+        <f t="shared" si="1"/>
+        <v>440.02451939586962</v>
+      </c>
+      <c r="E41" s="15">
+        <f t="shared" si="4"/>
+        <v>419.28256973453063</v>
+      </c>
+      <c r="F41" s="16">
+        <f t="shared" si="5"/>
+        <v>462.92548851010412</v>
+      </c>
+      <c r="G41" s="11">
+        <f t="shared" si="2"/>
+        <v>462.92548851010412</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="6">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="C42" s="12">
+        <f t="shared" si="0"/>
+        <v>10461.399795524088</v>
+      </c>
+      <c r="D42" s="7">
+        <f t="shared" si="1"/>
+        <v>485.82645762433862</v>
+      </c>
+      <c r="E42" s="15">
+        <f t="shared" si="4"/>
+        <v>462.92548851010412</v>
+      </c>
+      <c r="F42" s="16">
+        <f t="shared" si="5"/>
+        <v>511.11117747633284</v>
+      </c>
+      <c r="G42" s="11">
+        <f t="shared" si="2"/>
+        <v>511.11117747633284</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="6">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="C43" s="12">
+        <f t="shared" si="0"/>
+        <v>11550.32181258751</v>
+      </c>
+      <c r="D43" s="7">
+        <f t="shared" si="1"/>
+        <v>536.39589732832701</v>
+      </c>
+      <c r="E43" s="15">
+        <f t="shared" si="4"/>
+        <v>511.11117747633284</v>
+      </c>
+      <c r="F43" s="16">
+        <f t="shared" si="5"/>
+        <v>564.31249137309385</v>
+      </c>
+      <c r="G43" s="11">
+        <f t="shared" si="2"/>
+        <v>564.31249137309385</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="6">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="C44" s="12">
+        <f t="shared" si="0"/>
+        <v>12752.589192835769</v>
+      </c>
+      <c r="D44" s="7">
+        <f t="shared" si="1"/>
+        <v>592.22908541786069</v>
+      </c>
+      <c r="E44" s="15">
+        <f t="shared" si="4"/>
+        <v>564.31249137309385</v>
+      </c>
+      <c r="F44" s="16">
+        <f t="shared" si="5"/>
+        <v>623.05150416017659</v>
+      </c>
+      <c r="G44" s="11">
+        <f t="shared" si="2"/>
+        <v>623.05150416017659</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="6">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="C45" s="12">
+        <f t="shared" si="0"/>
+        <v>14079.999999999958</v>
+      </c>
+      <c r="D45" s="7">
+        <f t="shared" si="1"/>
+        <v>653.87392290249238</v>
+      </c>
+      <c r="E45" s="15">
+        <f t="shared" si="4"/>
+        <v>623.05150416017659</v>
+      </c>
+      <c r="F45" s="16">
+        <f t="shared" si="5"/>
+        <v>687.90463222194649</v>
+      </c>
+      <c r="G45" s="11">
+        <f t="shared" si="2"/>
+        <v>687.90463222194649</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="6">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="C46" s="12">
+        <f t="shared" si="0"/>
+        <v>15545.580352527229</v>
+      </c>
+      <c r="D46" s="7">
+        <f t="shared" si="1"/>
+        <v>721.93534154140059</v>
+      </c>
+      <c r="E46" s="15">
+        <f t="shared" si="4"/>
+        <v>687.90463222194649</v>
+      </c>
+      <c r="F46" s="16">
+        <f t="shared" si="5"/>
+        <v>759.50829084389147</v>
+      </c>
+      <c r="G46" s="11">
+        <f t="shared" si="2"/>
+        <v>759.50829084389147</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="6">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="C47" s="12">
+        <f t="shared" si="0"/>
+        <v>17163.712251198958</v>
+      </c>
+      <c r="D47" s="7">
+        <f t="shared" si="1"/>
+        <v>797.08124014638247</v>
+      </c>
+      <c r="E47" s="15">
+        <f t="shared" si="4"/>
+        <v>759.50829084389147</v>
+      </c>
+      <c r="F47" s="16">
+        <f t="shared" si="5"/>
+        <v>838.56513946906045</v>
+      </c>
+      <c r="G47" s="11">
+        <f t="shared" si="2"/>
+        <v>838.56513946906045</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="6">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="C48" s="12">
+        <f t="shared" si="0"/>
+        <v>18950.274712263508</v>
+      </c>
+      <c r="D48" s="7">
+        <f t="shared" si="1"/>
+        <v>880.04903879173844</v>
+      </c>
+      <c r="E48" s="15">
+        <f t="shared" si="4"/>
+        <v>838.56513946906045</v>
+      </c>
+      <c r="F48" s="16">
+        <f t="shared" si="5"/>
+        <v>925.85097702020744</v>
+      </c>
+      <c r="G48" s="11">
+        <f t="shared" si="2"/>
+        <v>925.85097702020744</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="6">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="C49" s="12">
+        <f t="shared" si="0"/>
+        <v>20922.799591048162</v>
+      </c>
+      <c r="D49" s="7">
+        <f t="shared" si="1"/>
+        <v>971.65291524867655</v>
+      </c>
+      <c r="E49" s="15">
+        <f t="shared" si="4"/>
+        <v>925.85097702020744</v>
+      </c>
+      <c r="F49" s="16">
+        <f t="shared" si="5"/>
+        <v>1022.2223549526648</v>
+      </c>
+      <c r="G49" s="11">
+        <f t="shared" si="2"/>
+        <v>1022.2223549526648</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="6">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="C50" s="12">
+        <f t="shared" si="0"/>
+        <v>23100.643625175002</v>
+      </c>
+      <c r="D50" s="7">
+        <f t="shared" si="1"/>
+        <v>1072.7917946566531</v>
+      </c>
+      <c r="E50" s="15">
+        <f t="shared" si="4"/>
+        <v>1022.2223549526648</v>
+      </c>
+      <c r="F50" s="16">
+        <f t="shared" si="5"/>
+        <v>1128.6249827461868</v>
+      </c>
+      <c r="G50" s="11">
+        <f t="shared" si="2"/>
+        <v>1128.6249827461868</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="6">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="C51" s="12">
+        <f t="shared" si="0"/>
+        <v>25505.178385671519</v>
+      </c>
+      <c r="D51" s="7">
+        <f t="shared" si="1"/>
+        <v>1184.4581708357205</v>
+      </c>
+      <c r="E51" s="15">
+        <f t="shared" si="4"/>
+        <v>1128.6249827461868</v>
+      </c>
+      <c r="F51" s="16">
+        <f t="shared" si="5"/>
+        <v>1246.1030083203523</v>
+      </c>
+      <c r="G51" s="11">
+        <f t="shared" si="2"/>
+        <v>1246.1030083203523</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="6">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="C52" s="12">
+        <f t="shared" si="0"/>
+        <v>28159.999999999894</v>
+      </c>
+      <c r="D52" s="7">
+        <f t="shared" si="1"/>
+        <v>1307.7478458049839</v>
+      </c>
+      <c r="E52" s="15">
+        <f t="shared" si="4"/>
+        <v>1246.1030083203523</v>
+      </c>
+      <c r="F52" s="16">
+        <f t="shared" si="5"/>
+        <v>1375.8092644438921</v>
+      </c>
+      <c r="G52" s="11">
+        <f t="shared" si="2"/>
+        <v>1375.8092644438921</v>
+      </c>
+      <c r="H52" s="14"/>
+      <c r="I52" s="19"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="6">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="C53" s="12">
+        <f t="shared" si="0"/>
+        <v>31091.160705054433</v>
+      </c>
+      <c r="D53" s="7">
+        <f t="shared" si="1"/>
+        <v>1443.8706830828</v>
+      </c>
+      <c r="E53" s="15">
+        <f t="shared" si="4"/>
+        <v>1375.8092644438921</v>
+      </c>
+      <c r="F53" s="16">
+        <f t="shared" si="5"/>
+        <v>1519.016581687782</v>
+      </c>
+      <c r="G53" s="11">
+        <f t="shared" si="2"/>
+        <v>1519.016581687782</v>
+      </c>
+      <c r="H53" s="14"/>
+      <c r="I53" s="19"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="6">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="C54" s="12">
+        <f t="shared" si="0"/>
+        <v>34327.424502397895</v>
+      </c>
+      <c r="D54" s="7">
+        <f t="shared" si="1"/>
+        <v>1594.1624802927638</v>
+      </c>
+      <c r="E54" s="15">
+        <f t="shared" si="4"/>
+        <v>1519.016581687782</v>
+      </c>
+      <c r="F54" s="16">
+        <f t="shared" si="5"/>
+        <v>1677.1302789381198</v>
+      </c>
+      <c r="G54" s="11">
+        <f t="shared" si="2"/>
+        <v>1677.1302789381198</v>
+      </c>
+      <c r="H54" s="14"/>
+      <c r="I54" s="19"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="6">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="C55" s="12">
+        <f t="shared" si="0"/>
+        <v>37900.549424526995</v>
+      </c>
+      <c r="D55" s="7">
+        <f t="shared" si="1"/>
+        <v>1760.0980775834757</v>
+      </c>
+      <c r="E55" s="15">
+        <f t="shared" si="4"/>
+        <v>1677.1302789381198</v>
+      </c>
+      <c r="F55" s="16">
+        <f t="shared" si="5"/>
+        <v>1851.7019540404137</v>
+      </c>
+      <c r="G55" s="11">
+        <f t="shared" si="2"/>
+        <v>1851.7019540404137</v>
+      </c>
+      <c r="H55" s="14"/>
+      <c r="I55" s="19"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="6">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="C56" s="12">
+        <f t="shared" si="0"/>
+        <v>41845.599182096295</v>
+      </c>
+      <c r="D56" s="7">
+        <f t="shared" si="1"/>
+        <v>1943.3058304973517</v>
+      </c>
+      <c r="E56" s="15">
+        <f t="shared" si="4"/>
+        <v>1851.7019540404137</v>
+      </c>
+      <c r="F56" s="16">
+        <f t="shared" si="5"/>
+        <v>2044.4447099053282</v>
+      </c>
+      <c r="G56" s="11">
+        <f t="shared" si="2"/>
+        <v>2044.4447099053282</v>
+      </c>
+      <c r="H56" s="14"/>
+      <c r="I56" s="19"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="6">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="C57" s="12">
+        <f t="shared" si="0"/>
+        <v>46201.287250349968</v>
+      </c>
+      <c r="D57" s="7">
+        <f t="shared" si="1"/>
+        <v>2145.5835893133044</v>
+      </c>
+      <c r="E57" s="15">
+        <f t="shared" si="4"/>
+        <v>2044.4447099053282</v>
+      </c>
+      <c r="F57" s="16">
+        <f t="shared" si="5"/>
+        <v>2257.2499654923718</v>
+      </c>
+      <c r="G57" s="11">
+        <f t="shared" si="2"/>
+        <v>2257.2499654923718</v>
+      </c>
+      <c r="H57" s="14"/>
+      <c r="I57" s="19"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="6">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="C58" s="12">
+        <f t="shared" si="0"/>
+        <v>51010.356771343002</v>
+      </c>
+      <c r="D58" s="7">
+        <f t="shared" si="1"/>
+        <v>2368.9163416714391</v>
+      </c>
+      <c r="E58" s="15">
+        <f t="shared" si="4"/>
+        <v>2257.2499654923718</v>
+      </c>
+      <c r="F58" s="16">
+        <f t="shared" si="5"/>
+        <v>2492.2060166407023</v>
+      </c>
+      <c r="G58" s="11">
+        <f t="shared" si="2"/>
+        <v>2492.2060166407023</v>
+      </c>
+      <c r="H58" s="14"/>
+      <c r="I58" s="19"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="6">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="C59" s="12">
+        <f t="shared" si="0"/>
+        <v>56319.999999999745</v>
+      </c>
+      <c r="D59" s="7">
+        <f t="shared" si="1"/>
+        <v>2615.4956916099654</v>
+      </c>
+      <c r="E59" s="15">
+        <f t="shared" si="4"/>
+        <v>2492.2060166407023</v>
+      </c>
+      <c r="F59" s="16">
+        <f t="shared" si="5"/>
+        <v>2751.6185288877814</v>
+      </c>
+      <c r="G59" s="11">
+        <f t="shared" si="2"/>
+        <v>2751.6185288877814</v>
+      </c>
+      <c r="H59" s="14"/>
+      <c r="I59" s="19"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="6">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="C60" s="12">
+        <f t="shared" si="0"/>
+        <v>62182.321410108816</v>
+      </c>
+      <c r="D60" s="7">
+        <f t="shared" si="1"/>
+        <v>2887.7413661655978</v>
+      </c>
+      <c r="E60" s="15">
+        <f t="shared" si="4"/>
+        <v>2751.6185288877814</v>
+      </c>
+      <c r="F60" s="16">
+        <f t="shared" si="5"/>
+        <v>3038.0331633755613</v>
+      </c>
+      <c r="G60" s="11">
+        <f t="shared" si="2"/>
+        <v>3038.0331633755613</v>
+      </c>
+      <c r="H60" s="14"/>
+      <c r="I60" s="19"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="6">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="C61" s="12">
+        <f t="shared" si="0"/>
+        <v>68654.849004795731</v>
+      </c>
+      <c r="D61" s="7">
+        <f t="shared" si="1"/>
+        <v>3188.3249605855253</v>
+      </c>
+      <c r="E61" s="15">
+        <f t="shared" si="4"/>
+        <v>3038.0331633755613</v>
+      </c>
+      <c r="F61" s="16">
+        <f t="shared" si="5"/>
+        <v>3354.2605578762373</v>
+      </c>
+      <c r="G61" s="11">
+        <f t="shared" si="2"/>
+        <v>3354.2605578762373</v>
+      </c>
+      <c r="H61" s="14"/>
+      <c r="I61" s="19"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="6">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="C62" s="12">
+        <f t="shared" si="0"/>
+        <v>75801.098849053931</v>
+      </c>
+      <c r="D62" s="7">
+        <f t="shared" si="1"/>
+        <v>3520.1961551669492</v>
+      </c>
+      <c r="E62" s="15">
+        <f t="shared" si="4"/>
+        <v>3354.2605578762373</v>
+      </c>
+      <c r="F62" s="16">
+        <f t="shared" si="5"/>
+        <v>3703.4039080808247</v>
+      </c>
+      <c r="G62" s="11">
+        <f t="shared" si="2"/>
+        <v>3703.4039080808247</v>
+      </c>
+      <c r="H62" s="14"/>
+      <c r="I62" s="19"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="6">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="C63" s="12">
+        <f t="shared" si="0"/>
+        <v>83691.198364192518</v>
+      </c>
+      <c r="D63" s="7">
+        <f t="shared" si="1"/>
+        <v>3886.6116609947003</v>
+      </c>
+      <c r="E63" s="15">
+        <f t="shared" si="4"/>
+        <v>3703.4039080808247</v>
+      </c>
+      <c r="F63" s="16">
+        <f t="shared" si="5"/>
+        <v>4088.8894198106532</v>
+      </c>
+      <c r="G63" s="11">
+        <f t="shared" si="2"/>
+        <v>4088.8894198106532</v>
+      </c>
+      <c r="H63" s="14"/>
+      <c r="I63" s="19"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="6">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="C64" s="12">
+        <f t="shared" si="0"/>
+        <v>92402.574500699862</v>
+      </c>
+      <c r="D64" s="7">
+        <f t="shared" si="1"/>
+        <v>4291.1671786266061</v>
+      </c>
+      <c r="E64" s="15">
+        <f t="shared" si="4"/>
+        <v>4088.8894198106532</v>
+      </c>
+      <c r="F64" s="16">
+        <f t="shared" si="5"/>
+        <v>4514.4999309847408</v>
+      </c>
+      <c r="G64" s="11">
+        <f t="shared" si="2"/>
+        <v>4514.4999309847408</v>
+      </c>
+      <c r="H64" s="14"/>
+      <c r="I64" s="19"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="6">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="C65" s="12">
+        <f t="shared" si="0"/>
+        <v>102020.71354268593</v>
+      </c>
+      <c r="D65" s="7">
+        <f t="shared" si="1"/>
+        <v>4737.8326833428746</v>
+      </c>
+      <c r="E65" s="15">
+        <f t="shared" si="4"/>
+        <v>4514.4999309847408</v>
+      </c>
+      <c r="F65" s="16">
+        <f t="shared" si="5"/>
+        <v>4984.4120332814009</v>
+      </c>
+      <c r="G65" s="11">
+        <f t="shared" si="2"/>
+        <v>4984.4120332814009</v>
+      </c>
+      <c r="H65" s="14"/>
+      <c r="I65" s="19"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="6">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="C66" s="12">
+        <f t="shared" si="0"/>
+        <v>112639.99999999942</v>
+      </c>
+      <c r="D66" s="7">
+        <f t="shared" si="1"/>
+        <v>5230.9913832199272</v>
+      </c>
+      <c r="E66" s="15">
+        <f t="shared" si="4"/>
+        <v>4984.4120332814009</v>
+      </c>
+      <c r="F66" s="16">
+        <f t="shared" si="5"/>
+        <v>5503.2370577755592</v>
+      </c>
+      <c r="G66" s="11">
+        <f t="shared" si="2"/>
+        <v>5503.2370577755592</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="6">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="C67" s="12">
+        <f t="shared" si="0"/>
+        <v>124364.64282021756</v>
+      </c>
+      <c r="D67" s="7">
+        <f t="shared" si="1"/>
+        <v>5775.482732331192</v>
+      </c>
+      <c r="E67" s="15">
+        <f t="shared" si="4"/>
+        <v>5503.2370577755592</v>
+      </c>
+      <c r="F67" s="16">
+        <f t="shared" si="5"/>
+        <v>6076.066326751119</v>
+      </c>
+      <c r="G67" s="11">
+        <f t="shared" si="2"/>
+        <v>6076.066326751119</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="6">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="C68" s="12">
+        <f t="shared" si="0"/>
+        <v>137309.69800959135</v>
+      </c>
+      <c r="D68" s="7">
+        <f t="shared" si="1"/>
+        <v>6376.6499211710452</v>
+      </c>
+      <c r="E68" s="15">
+        <f t="shared" si="4"/>
+        <v>6076.066326751119</v>
+      </c>
+      <c r="F68" s="16">
+        <f t="shared" si="5"/>
+        <v>6708.5211157524691</v>
+      </c>
+      <c r="G68" s="11">
+        <f t="shared" si="2"/>
+        <v>6708.5211157524691</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="6">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="C69" s="12">
+        <f t="shared" si="0"/>
+        <v>151602.19769810775</v>
+      </c>
+      <c r="D69" s="7">
+        <f t="shared" si="1"/>
+        <v>7040.392310333893</v>
+      </c>
+      <c r="E69" s="15">
+        <f t="shared" si="4"/>
+        <v>6708.5211157524691</v>
+      </c>
+      <c r="F69" s="16">
+        <f t="shared" si="5"/>
+        <v>7406.807816161644</v>
+      </c>
+      <c r="G69" s="11">
+        <f t="shared" si="2"/>
+        <v>7406.807816161644</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="6">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="C70" s="12">
+        <f t="shared" si="0"/>
+        <v>167382.39672838492</v>
+      </c>
+      <c r="D70" s="7">
+        <f t="shared" si="1"/>
+        <v>7773.2233219893951</v>
+      </c>
+      <c r="E70" s="15">
+        <f t="shared" si="4"/>
+        <v>7406.807816161644</v>
+      </c>
+      <c r="F70" s="16">
+        <f t="shared" si="5"/>
+        <v>8177.7788396213009</v>
+      </c>
+      <c r="G70" s="11">
+        <f t="shared" si="2"/>
+        <v>8177.7788396213009</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="6">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="C71" s="12">
+        <f t="shared" si="0"/>
+        <v>184805.14900139961</v>
+      </c>
+      <c r="D71" s="7">
+        <f t="shared" si="1"/>
+        <v>8582.3343572532067</v>
+      </c>
+      <c r="E71" s="15">
+        <f t="shared" si="4"/>
+        <v>8177.7788396213009</v>
+      </c>
+      <c r="F71" s="16">
+        <f t="shared" si="5"/>
+        <v>9028.9998619694743</v>
+      </c>
+      <c r="G71" s="11">
+        <f t="shared" si="2"/>
+        <v>9028.9998619694743</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="6">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="C72" s="12">
+        <f t="shared" si="0"/>
+        <v>204041.42708537172</v>
+      </c>
+      <c r="D72" s="7">
+        <f t="shared" si="1"/>
+        <v>9475.6653666857437</v>
+      </c>
+      <c r="E72" s="15">
+        <f t="shared" si="4"/>
+        <v>9028.9998619694743</v>
+      </c>
+      <c r="F72" s="16">
+        <f t="shared" si="5"/>
+        <v>9968.8240665627945</v>
+      </c>
+      <c r="G72" s="11">
+        <f t="shared" si="2"/>
+        <v>9968.8240665627945</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="6">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="C73" s="12">
+        <f t="shared" si="0"/>
+        <v>225279.99999999863</v>
+      </c>
+      <c r="D73" s="7">
+        <f t="shared" si="1"/>
+        <v>10461.982766439845</v>
+      </c>
+      <c r="E73" s="15">
+        <f t="shared" si="4"/>
+        <v>9968.8240665627945</v>
+      </c>
+      <c r="F73" s="16">
+        <f t="shared" si="5"/>
+        <v>11006.474115551111</v>
+      </c>
+      <c r="G73" s="11">
+        <f t="shared" si="2"/>
+        <v>11006.474115551111</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="6">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="C74" s="12">
+        <f t="shared" si="0"/>
+        <v>248729.28564043491</v>
+      </c>
+      <c r="D74" s="7">
+        <f t="shared" si="1"/>
+        <v>11550.965464662375</v>
+      </c>
+      <c r="E74" s="15">
+        <f t="shared" si="4"/>
+        <v>11006.474115551111</v>
+      </c>
+      <c r="F74" s="16">
+        <f t="shared" si="5"/>
+        <v>12152.132653502227</v>
+      </c>
+      <c r="G74" s="11">
+        <f t="shared" si="2"/>
+        <v>12152.132653502227</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="6">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="C75" s="12">
+        <f t="shared" si="0"/>
+        <v>274619.39601918252</v>
+      </c>
+      <c r="D75" s="7">
+        <f t="shared" si="1"/>
+        <v>12753.299842342081</v>
+      </c>
+      <c r="E75" s="15">
+        <f t="shared" si="4"/>
+        <v>12152.132653502227</v>
+      </c>
+      <c r="F75" s="16">
+        <f t="shared" si="5"/>
+        <v>13417.042231504929</v>
+      </c>
+      <c r="G75" s="11">
+        <f t="shared" si="2"/>
+        <v>13417.042231504929</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="6">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="C76" s="12">
+        <f t="shared" si="0"/>
+        <v>303204.39539621526</v>
+      </c>
+      <c r="D76" s="7">
+        <f t="shared" si="1"/>
+        <v>14080.784620667775</v>
+      </c>
+      <c r="E76" s="15">
+        <f t="shared" si="4"/>
+        <v>13417.042231504929</v>
+      </c>
+      <c r="F76" s="16">
+        <f t="shared" si="5"/>
+        <v>14813.615632323277</v>
+      </c>
+      <c r="G76" s="11">
+        <f t="shared" si="2"/>
+        <v>14813.615632323277</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="6">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="C77" s="12">
+        <f t="shared" si="0"/>
+        <v>334764.79345676961</v>
+      </c>
+      <c r="D77" s="7">
+        <f t="shared" si="1"/>
+        <v>15546.446643978779</v>
+      </c>
+      <c r="E77" s="15">
+        <f t="shared" si="4"/>
+        <v>14813.615632323277</v>
+      </c>
+      <c r="F77" s="16">
+        <f t="shared" si="5"/>
+        <v>16355.557679242589</v>
+      </c>
+      <c r="G77" s="11">
+        <f t="shared" si="2"/>
+        <v>16355.557679242589</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="6">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="C78" s="12">
+        <f t="shared" si="0"/>
+        <v>369610.29800279893</v>
+      </c>
+      <c r="D78" s="7">
+        <f t="shared" si="1"/>
+        <v>17164.668714506399</v>
+      </c>
+      <c r="E78" s="15">
+        <f t="shared" si="4"/>
+        <v>16355.557679242589</v>
+      </c>
+      <c r="F78" s="16">
+        <f t="shared" si="5"/>
+        <v>18057.999723938934</v>
+      </c>
+      <c r="G78" s="11">
+        <f t="shared" si="2"/>
+        <v>18057.999723938934</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="6">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="C79" s="12">
+        <f t="shared" si="0"/>
+        <v>408082.85417074303</v>
+      </c>
+      <c r="D79" s="7">
+        <f t="shared" si="1"/>
+        <v>18951.330733371469</v>
+      </c>
+      <c r="E79" s="15">
+        <f t="shared" si="4"/>
+        <v>18057.999723938934</v>
+      </c>
+      <c r="F79" s="16">
+        <f t="shared" si="5"/>
+        <v>19937.648133125571</v>
+      </c>
+      <c r="G79" s="11">
+        <f t="shared" si="2"/>
+        <v>19937.648133125571</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="6">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="C80" s="12">
+        <f t="shared" si="0"/>
+        <v>450559.99999999691</v>
+      </c>
+      <c r="D80" s="7">
+        <f t="shared" si="1"/>
+        <v>20923.965532879676</v>
+      </c>
+      <c r="E80" s="15">
+        <f t="shared" si="4"/>
+        <v>19937.648133125571</v>
+      </c>
+      <c r="F80" s="16">
+        <f t="shared" si="5"/>
+        <v>22012.9482311022</v>
+      </c>
+      <c r="G80" s="11">
+        <f t="shared" si="2"/>
+        <v>22012.9482311022</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="6">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="C81" s="12">
+        <f t="shared" ref="C81:C115" si="6">$B$6*POWER($B$11,B81)</f>
+        <v>497458.57128086942</v>
+      </c>
+      <c r="D81" s="7">
+        <f t="shared" ref="D81:D115" si="7">C81/$B$13</f>
+        <v>23101.930929324728</v>
+      </c>
+      <c r="E81" s="15">
+        <f t="shared" si="4"/>
+        <v>22012.9482311022</v>
+      </c>
+      <c r="F81" s="16">
+        <f t="shared" si="5"/>
+        <v>24304.265307004433</v>
+      </c>
+      <c r="G81" s="11">
+        <f t="shared" si="2"/>
+        <v>24304.265307004433</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="6">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="C82" s="12">
+        <f t="shared" si="6"/>
+        <v>549238.79203836457</v>
+      </c>
+      <c r="D82" s="7">
+        <f t="shared" si="7"/>
+        <v>25506.599684684141</v>
+      </c>
+      <c r="E82" s="15">
+        <f t="shared" si="4"/>
+        <v>24304.265307004433</v>
+      </c>
+      <c r="F82" s="16">
+        <f t="shared" si="5"/>
+        <v>26834.084463009836</v>
+      </c>
+      <c r="G82" s="11">
+        <f t="shared" ref="G82:G115" si="8">F82</f>
+        <v>26834.084463009836</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83" s="6">
+        <f t="shared" ref="B83:B115" si="9">B82+1</f>
+        <v>66</v>
+      </c>
+      <c r="C83" s="12">
+        <f t="shared" si="6"/>
+        <v>606408.79079243005</v>
+      </c>
+      <c r="D83" s="7">
+        <f t="shared" si="7"/>
+        <v>28161.569241335528</v>
+      </c>
+      <c r="E83" s="15">
+        <f t="shared" ref="E83:E115" si="10">F82</f>
+        <v>26834.084463009836</v>
+      </c>
+      <c r="F83" s="16">
+        <f t="shared" ref="F83:F115" si="11">((D84-D83)/2)+D83</f>
+        <v>29627.231264646529</v>
+      </c>
+      <c r="G83" s="11">
+        <f t="shared" si="8"/>
+        <v>29627.231264646529</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="6">
+        <f t="shared" si="9"/>
+        <v>67</v>
+      </c>
+      <c r="C84" s="12">
+        <f t="shared" si="6"/>
+        <v>669529.58691353863</v>
+      </c>
+      <c r="D84" s="7">
+        <f t="shared" si="7"/>
+        <v>31092.89328795753</v>
+      </c>
+      <c r="E84" s="15">
+        <f t="shared" si="10"/>
+        <v>29627.231264646529</v>
+      </c>
+      <c r="F84" s="16">
+        <f t="shared" si="11"/>
+        <v>32711.115358485149</v>
+      </c>
+      <c r="G84" s="11">
+        <f t="shared" si="8"/>
+        <v>32711.115358485149</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="6">
+        <f t="shared" si="9"/>
+        <v>68</v>
+      </c>
+      <c r="C85" s="12">
+        <f t="shared" si="6"/>
+        <v>739220.59600559727</v>
+      </c>
+      <c r="D85" s="7">
+        <f t="shared" si="7"/>
+        <v>34329.337429012769</v>
+      </c>
+      <c r="E85" s="15">
+        <f t="shared" si="10"/>
+        <v>32711.115358485149</v>
+      </c>
+      <c r="F85" s="16">
+        <f t="shared" si="11"/>
+        <v>36115.999447877839</v>
+      </c>
+      <c r="G85" s="11">
+        <f t="shared" si="8"/>
+        <v>36115.999447877839</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="6">
+        <f t="shared" si="9"/>
+        <v>69</v>
+      </c>
+      <c r="C86" s="12">
+        <f t="shared" si="6"/>
+        <v>816165.70834148547</v>
+      </c>
+      <c r="D86" s="7">
+        <f t="shared" si="7"/>
+        <v>37902.661466742909</v>
+      </c>
+      <c r="E86" s="15">
+        <f t="shared" si="10"/>
+        <v>36115.999447877839</v>
+      </c>
+      <c r="F86" s="16">
+        <f t="shared" si="11"/>
+        <v>39875.296266251113</v>
+      </c>
+      <c r="G86" s="11">
+        <f t="shared" si="8"/>
+        <v>39875.296266251113</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="6">
+        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+      <c r="C87" s="12">
+        <f t="shared" si="6"/>
+        <v>901119.99999999313</v>
+      </c>
+      <c r="D87" s="7">
+        <f t="shared" si="7"/>
+        <v>41847.931065759316</v>
+      </c>
+      <c r="E87" s="15">
+        <f t="shared" si="10"/>
+        <v>39875.296266251113</v>
+      </c>
+      <c r="F87" s="16">
+        <f t="shared" si="11"/>
+        <v>44025.896462204371</v>
+      </c>
+      <c r="G87" s="11">
+        <f t="shared" si="8"/>
+        <v>44025.896462204371</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="6">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="C88" s="12">
+        <f t="shared" si="6"/>
+        <v>994917.14256173815</v>
+      </c>
+      <c r="D88" s="7">
+        <f t="shared" si="7"/>
+        <v>46203.861858649427</v>
+      </c>
+      <c r="E88" s="15">
+        <f t="shared" si="10"/>
+        <v>44025.896462204371</v>
+      </c>
+      <c r="F88" s="16">
+        <f t="shared" si="11"/>
+        <v>48608.530614008836</v>
+      </c>
+      <c r="G88" s="11">
+        <f t="shared" si="8"/>
+        <v>48608.530614008836</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="6">
+        <f t="shared" si="9"/>
+        <v>72</v>
+      </c>
+      <c r="C89" s="12">
+        <f t="shared" si="6"/>
+        <v>1098477.5840767282</v>
+      </c>
+      <c r="D89" s="7">
+        <f t="shared" si="7"/>
+        <v>51013.199369368238</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="10"/>
+        <v>48608.530614008836</v>
+      </c>
+      <c r="F89" s="16">
+        <f t="shared" si="11"/>
+        <v>53668.168926019629</v>
+      </c>
+      <c r="G89" s="11">
+        <f t="shared" si="8"/>
+        <v>53668.168926019629</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="6">
+        <f t="shared" si="9"/>
+        <v>73</v>
+      </c>
+      <c r="C90" s="12">
+        <f t="shared" si="6"/>
+        <v>1212817.5815848592</v>
+      </c>
+      <c r="D90" s="7">
+        <f t="shared" si="7"/>
+        <v>56323.138482671013</v>
+      </c>
+      <c r="E90" s="15">
+        <f t="shared" si="10"/>
+        <v>53668.168926019629</v>
+      </c>
+      <c r="F90" s="16">
+        <f t="shared" si="11"/>
+        <v>59254.462529293014</v>
+      </c>
+      <c r="G90" s="11">
+        <f t="shared" si="8"/>
+        <v>59254.462529293014</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="6">
+        <f t="shared" si="9"/>
+        <v>74</v>
+      </c>
+      <c r="C91" s="12">
+        <f t="shared" si="6"/>
+        <v>1339059.1738270761</v>
+      </c>
+      <c r="D91" s="7">
+        <f t="shared" si="7"/>
+        <v>62185.786575915008</v>
+      </c>
+      <c r="E91" s="15">
+        <f t="shared" si="10"/>
+        <v>59254.462529293014</v>
+      </c>
+      <c r="F91" s="16">
+        <f t="shared" si="11"/>
+        <v>65422.230716970254</v>
+      </c>
+      <c r="G91" s="11">
+        <f t="shared" si="8"/>
+        <v>65422.230716970254</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="6">
+        <f t="shared" si="9"/>
+        <v>75</v>
+      </c>
+      <c r="C92" s="12">
+        <f t="shared" si="6"/>
+        <v>1478441.1920111934</v>
+      </c>
+      <c r="D92" s="7">
+        <f t="shared" si="7"/>
+        <v>68658.674858025493</v>
+      </c>
+      <c r="E92" s="15">
+        <f t="shared" si="10"/>
+        <v>65422.230716970254</v>
+      </c>
+      <c r="F92" s="16">
+        <f t="shared" si="11"/>
+        <v>72231.99889575562</v>
+      </c>
+      <c r="G92" s="11">
+        <f t="shared" si="8"/>
+        <v>72231.99889575562</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="6">
+        <f t="shared" si="9"/>
+        <v>76</v>
+      </c>
+      <c r="C93" s="12">
+        <f t="shared" si="6"/>
+        <v>1632331.4166829695</v>
+      </c>
+      <c r="D93" s="7">
+        <f t="shared" si="7"/>
+        <v>75805.322933485746</v>
+      </c>
+      <c r="E93" s="15">
+        <f t="shared" si="10"/>
+        <v>72231.99889575562</v>
+      </c>
+      <c r="F93" s="16">
+        <f t="shared" si="11"/>
+        <v>79750.592532502167</v>
+      </c>
+      <c r="G93" s="11">
+        <f t="shared" si="8"/>
+        <v>79750.592532502167</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="6">
+        <f t="shared" si="9"/>
+        <v>77</v>
+      </c>
+      <c r="C94" s="12">
+        <f t="shared" si="6"/>
+        <v>1802239.9999999851</v>
+      </c>
+      <c r="D94" s="7">
+        <f t="shared" si="7"/>
+        <v>83695.862131518588</v>
+      </c>
+      <c r="E94" s="15">
+        <f t="shared" si="10"/>
+        <v>79750.592532502167</v>
+      </c>
+      <c r="F94" s="16">
+        <f t="shared" si="11"/>
+        <v>88051.792924408684</v>
+      </c>
+      <c r="G94" s="11">
+        <f t="shared" si="8"/>
+        <v>88051.792924408684</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="6">
+        <f t="shared" si="9"/>
+        <v>78</v>
+      </c>
+      <c r="C95" s="12">
+        <f t="shared" si="6"/>
+        <v>1989834.2851234747</v>
+      </c>
+      <c r="D95" s="7">
+        <f t="shared" si="7"/>
+        <v>92407.723717298781</v>
+      </c>
+      <c r="E95" s="15">
+        <f t="shared" si="10"/>
+        <v>88051.792924408684</v>
+      </c>
+      <c r="F95" s="16">
+        <f t="shared" si="11"/>
+        <v>97217.061228017599</v>
+      </c>
+      <c r="G95" s="11">
+        <f t="shared" si="8"/>
+        <v>97217.061228017599</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="6">
+        <f t="shared" si="9"/>
+        <v>79</v>
+      </c>
+      <c r="C96" s="12">
+        <f t="shared" si="6"/>
+        <v>2196955.168153455</v>
+      </c>
+      <c r="D96" s="7">
+        <f t="shared" si="7"/>
+        <v>102026.39873873642</v>
+      </c>
+      <c r="E96" s="15">
+        <f t="shared" si="10"/>
+        <v>97217.061228017599</v>
+      </c>
+      <c r="F96" s="16">
+        <f t="shared" si="11"/>
+        <v>107336.33785203919</v>
+      </c>
+      <c r="G96" s="11">
+        <f t="shared" si="8"/>
+        <v>107336.33785203919</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B97" s="6">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="C97" s="12">
+        <f t="shared" si="6"/>
+        <v>2425635.163169717</v>
+      </c>
+      <c r="D97" s="7">
+        <f t="shared" si="7"/>
+        <v>112646.27696534195</v>
+      </c>
+      <c r="E97" s="15">
+        <f t="shared" si="10"/>
+        <v>107336.33785203919</v>
+      </c>
+      <c r="F97" s="16">
+        <f t="shared" si="11"/>
+        <v>118508.92505858596</v>
+      </c>
+      <c r="G97" s="11">
+        <f t="shared" si="8"/>
+        <v>118508.92505858596</v>
+      </c>
+      <c r="J97" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B98" s="6">
+        <f t="shared" si="9"/>
+        <v>81</v>
+      </c>
+      <c r="C98" s="12">
+        <f t="shared" si="6"/>
+        <v>2678118.3476541508</v>
+      </c>
+      <c r="D98" s="7">
+        <f t="shared" si="7"/>
+        <v>124371.57315182996</v>
+      </c>
+      <c r="E98" s="15">
+        <f t="shared" si="10"/>
+        <v>118508.92505858596</v>
+      </c>
+      <c r="F98" s="16">
+        <f t="shared" si="11"/>
+        <v>130844.46143394042</v>
+      </c>
+      <c r="G98" s="11">
+        <f t="shared" si="8"/>
+        <v>130844.46143394042</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B99" s="6">
+        <f t="shared" si="9"/>
+        <v>82</v>
+      </c>
+      <c r="C99" s="12">
+        <f t="shared" si="6"/>
+        <v>2956882.3840223844</v>
+      </c>
+      <c r="D99" s="7">
+        <f t="shared" si="7"/>
+        <v>137317.34971605087</v>
+      </c>
+      <c r="E99" s="15">
+        <f t="shared" si="10"/>
+        <v>130844.46143394042</v>
+      </c>
+      <c r="F99" s="16">
+        <f t="shared" si="11"/>
+        <v>144463.99779151112</v>
+      </c>
+      <c r="G99" s="11">
+        <f t="shared" si="8"/>
+        <v>144463.99779151112</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B100" s="6">
+        <f t="shared" si="9"/>
+        <v>83</v>
+      </c>
+      <c r="C100" s="12">
+        <f t="shared" si="6"/>
+        <v>3264662.8333659372</v>
+      </c>
+      <c r="D100" s="7">
+        <f t="shared" si="7"/>
+        <v>151610.6458669714</v>
+      </c>
+      <c r="E100" s="15">
+        <f t="shared" si="10"/>
+        <v>144463.99779151112</v>
+      </c>
+      <c r="F100" s="16">
+        <f t="shared" si="11"/>
+        <v>159501.18506500422</v>
+      </c>
+      <c r="G100" s="11">
+        <f t="shared" si="8"/>
+        <v>159501.18506500422</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B101" s="6">
+        <f t="shared" si="9"/>
+        <v>84</v>
+      </c>
+      <c r="C101" s="12">
+        <f t="shared" si="6"/>
+        <v>3604479.9999999674</v>
+      </c>
+      <c r="D101" s="7">
+        <f t="shared" si="7"/>
+        <v>167391.72426303703</v>
+      </c>
+      <c r="E101" s="15">
+        <f t="shared" si="10"/>
+        <v>159501.18506500422</v>
+      </c>
+      <c r="F101" s="16">
+        <f t="shared" si="11"/>
+        <v>176103.58584881725</v>
+      </c>
+      <c r="G101" s="11">
+        <f t="shared" si="8"/>
+        <v>176103.58584881725</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B102" s="6">
+        <f t="shared" si="9"/>
+        <v>85</v>
+      </c>
+      <c r="C102" s="12">
+        <f t="shared" si="6"/>
+        <v>3979668.570246947</v>
+      </c>
+      <c r="D102" s="7">
+        <f t="shared" si="7"/>
+        <v>184815.44743459744</v>
+      </c>
+      <c r="E102" s="15">
+        <f t="shared" si="10"/>
+        <v>176103.58584881725</v>
+      </c>
+      <c r="F102" s="16">
+        <f t="shared" si="11"/>
+        <v>194434.12245603505</v>
+      </c>
+      <c r="G102" s="11">
+        <f t="shared" si="8"/>
+        <v>194434.12245603505</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B103" s="6">
+        <f t="shared" si="9"/>
+        <v>86</v>
+      </c>
+      <c r="C103" s="12">
+        <f t="shared" si="6"/>
+        <v>4393910.3363069072</v>
+      </c>
+      <c r="D103" s="7">
+        <f t="shared" si="7"/>
+        <v>204052.79747747269</v>
+      </c>
+      <c r="E103" s="15">
+        <f t="shared" si="10"/>
+        <v>194434.12245603505</v>
+      </c>
+      <c r="F103" s="16">
+        <f t="shared" si="11"/>
+        <v>214672.6757040782</v>
+      </c>
+      <c r="G103" s="11">
+        <f t="shared" si="8"/>
+        <v>214672.6757040782</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B104" s="6">
+        <f t="shared" si="9"/>
+        <v>87</v>
+      </c>
+      <c r="C104" s="12">
+        <f t="shared" si="6"/>
+        <v>4851270.3263394292</v>
+      </c>
+      <c r="D104" s="7">
+        <f t="shared" si="7"/>
+        <v>225292.5539306837</v>
+      </c>
+      <c r="E104" s="15">
+        <f t="shared" si="10"/>
+        <v>214672.6757040782</v>
+      </c>
+      <c r="F104" s="16">
+        <f t="shared" si="11"/>
+        <v>237017.85011717171</v>
+      </c>
+      <c r="G104" s="11">
+        <f t="shared" si="8"/>
+        <v>237017.85011717171</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B105" s="6">
+        <f t="shared" si="9"/>
+        <v>88</v>
+      </c>
+      <c r="C105" s="12">
+        <f t="shared" si="6"/>
+        <v>5356236.6953082969</v>
+      </c>
+      <c r="D105" s="7">
+        <f t="shared" si="7"/>
+        <v>248743.14630365968</v>
+      </c>
+      <c r="E105" s="15">
+        <f t="shared" si="10"/>
+        <v>237017.85011717171</v>
+      </c>
+      <c r="F105" s="16">
+        <f t="shared" si="11"/>
+        <v>261688.92286788061</v>
+      </c>
+      <c r="G105" s="11">
+        <f t="shared" si="8"/>
+        <v>261688.92286788061</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B106" s="6">
+        <f t="shared" si="9"/>
+        <v>89</v>
+      </c>
+      <c r="C106" s="12">
+        <f t="shared" si="6"/>
+        <v>5913764.7680447651</v>
+      </c>
+      <c r="D106" s="7">
+        <f t="shared" si="7"/>
+        <v>274634.69943210157</v>
+      </c>
+      <c r="E106" s="15">
+        <f t="shared" si="10"/>
+        <v>261688.92286788061</v>
+      </c>
+      <c r="F106" s="16">
+        <f t="shared" si="11"/>
+        <v>288927.99558302207</v>
+      </c>
+      <c r="G106" s="11">
+        <f t="shared" si="8"/>
+        <v>288927.99558302207</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B107" s="6">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="C107" s="12">
+        <f t="shared" si="6"/>
+        <v>6529325.6667318689</v>
+      </c>
+      <c r="D107" s="7">
+        <f t="shared" si="7"/>
+        <v>303221.29173394258</v>
+      </c>
+      <c r="E107" s="15">
+        <f t="shared" si="10"/>
+        <v>288927.99558302207</v>
+      </c>
+      <c r="F107" s="16">
+        <f t="shared" si="11"/>
+        <v>319002.3701300082</v>
+      </c>
+      <c r="G107" s="11">
+        <f t="shared" si="8"/>
+        <v>319002.3701300082</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B108" s="6">
+        <f t="shared" si="9"/>
+        <v>91</v>
+      </c>
+      <c r="C108" s="12">
+        <f t="shared" si="6"/>
+        <v>7208959.9999999292</v>
+      </c>
+      <c r="D108" s="7">
+        <f t="shared" si="7"/>
+        <v>334783.44852607383</v>
+      </c>
+      <c r="E108" s="15">
+        <f t="shared" si="10"/>
+        <v>319002.3701300082</v>
+      </c>
+      <c r="F108" s="16">
+        <f t="shared" si="11"/>
+        <v>352207.17169763421</v>
+      </c>
+      <c r="G108" s="11">
+        <f t="shared" si="8"/>
+        <v>352207.17169763421</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B109" s="6">
+        <f t="shared" si="9"/>
+        <v>92</v>
+      </c>
+      <c r="C109" s="12">
+        <f t="shared" si="6"/>
+        <v>7959337.1404938875</v>
+      </c>
+      <c r="D109" s="7">
+        <f t="shared" si="7"/>
+        <v>369630.8948691946</v>
+      </c>
+      <c r="E109" s="15">
+        <f t="shared" si="10"/>
+        <v>352207.17169763421</v>
+      </c>
+      <c r="F109" s="16">
+        <f t="shared" si="11"/>
+        <v>388868.24491206981</v>
+      </c>
+      <c r="G109" s="11">
+        <f t="shared" si="8"/>
+        <v>388868.24491206981</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B110" s="6">
+        <f t="shared" si="9"/>
+        <v>93</v>
+      </c>
+      <c r="C110" s="12">
+        <f t="shared" si="6"/>
+        <v>8787820.672613807</v>
+      </c>
+      <c r="D110" s="7">
+        <f t="shared" si="7"/>
+        <v>408105.59495494503</v>
+      </c>
+      <c r="E110" s="15">
+        <f t="shared" si="10"/>
+        <v>388868.24491206981</v>
+      </c>
+      <c r="F110" s="16">
+        <f t="shared" si="11"/>
+        <v>429345.35140815604</v>
+      </c>
+      <c r="G110" s="11">
+        <f t="shared" si="8"/>
+        <v>429345.35140815604</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B111" s="6">
+        <f t="shared" si="9"/>
+        <v>94</v>
+      </c>
+      <c r="C111" s="12">
+        <f t="shared" si="6"/>
+        <v>9702540.652678851</v>
+      </c>
+      <c r="D111" s="7">
+        <f t="shared" si="7"/>
+        <v>450585.10786136705</v>
+      </c>
+      <c r="E111" s="15">
+        <f t="shared" si="10"/>
+        <v>429345.35140815604</v>
+      </c>
+      <c r="F111" s="16">
+        <f t="shared" si="11"/>
+        <v>474035.70023434301</v>
+      </c>
+      <c r="G111" s="11">
+        <f t="shared" si="8"/>
+        <v>474035.70023434301</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B112" s="6">
+        <f t="shared" si="9"/>
+        <v>95</v>
+      </c>
+      <c r="C112" s="12">
+        <f t="shared" si="6"/>
+        <v>10712473.390616585</v>
+      </c>
+      <c r="D112" s="7">
+        <f t="shared" si="7"/>
+        <v>497486.29260731896</v>
+      </c>
+      <c r="E112" s="15">
+        <f t="shared" si="10"/>
+        <v>474035.70023434301</v>
+      </c>
+      <c r="F112" s="16">
+        <f t="shared" si="11"/>
+        <v>523377.84573576081</v>
+      </c>
+      <c r="G112" s="11">
+        <f t="shared" si="8"/>
+        <v>523377.84573576081</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113" s="6">
+        <f t="shared" si="9"/>
+        <v>96</v>
+      </c>
+      <c r="C113" s="12">
+        <f t="shared" si="6"/>
+        <v>11827529.536089521</v>
+      </c>
+      <c r="D113" s="7">
+        <f t="shared" si="7"/>
+        <v>549269.39886420267</v>
+      </c>
+      <c r="E113" s="15">
+        <f t="shared" si="10"/>
+        <v>523377.84573576081</v>
+      </c>
+      <c r="F113" s="16">
+        <f t="shared" si="11"/>
+        <v>577855.99116604379</v>
+      </c>
+      <c r="G113" s="11">
+        <f t="shared" si="8"/>
+        <v>577855.99116604379</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B114" s="6">
+        <f t="shared" si="9"/>
+        <v>97</v>
+      </c>
+      <c r="C114" s="12">
+        <f t="shared" si="6"/>
+        <v>13058651.33346373</v>
+      </c>
+      <c r="D114" s="7">
+        <f t="shared" si="7"/>
+        <v>606442.5834678848</v>
+      </c>
+      <c r="E114" s="15">
+        <f t="shared" si="10"/>
+        <v>577855.99116604379</v>
+      </c>
+      <c r="F114" s="16">
+        <f t="shared" si="11"/>
+        <v>638004.74026001594</v>
+      </c>
+      <c r="G114" s="11">
+        <f t="shared" si="8"/>
+        <v>638004.74026001594</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="6">
+        <f t="shared" si="9"/>
+        <v>98</v>
+      </c>
+      <c r="C115" s="12">
+        <f t="shared" si="6"/>
+        <v>14417919.999999847</v>
+      </c>
+      <c r="D115" s="7">
+        <f t="shared" si="7"/>
+        <v>669566.89705214708</v>
+      </c>
+      <c r="E115" s="15">
+        <f t="shared" si="10"/>
+        <v>638004.74026001594</v>
+      </c>
+      <c r="F115" s="16">
+        <f t="shared" si="11"/>
+        <v>334783.44852607354</v>
+      </c>
+      <c r="G115" s="11">
+        <f t="shared" si="8"/>
+        <v>334783.44852607354</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B17:F17">
+    <cfRule type="expression" dxfId="15" priority="8">
+      <formula>$B$17&lt;$B$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:F45">
+    <cfRule type="expression" dxfId="14" priority="7">
+      <formula>$B18&lt;$B$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46:F74">
+    <cfRule type="expression" dxfId="13" priority="6">
+      <formula>$B46&lt;$B$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B75:F80">
+    <cfRule type="expression" dxfId="12" priority="5">
+      <formula>$B75&lt;$B$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B83:F98">
+    <cfRule type="expression" dxfId="11" priority="3">
+      <formula>$B83&lt;$B$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B81:F82">
+    <cfRule type="expression" dxfId="10" priority="4">
+      <formula>$B81&lt;$B$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B99:F106">
+    <cfRule type="expression" dxfId="9" priority="2">
+      <formula>$B99&lt;$B$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B107:F115">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>$B107&lt;$B$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L115"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="2" max="12" width="8.5703125" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>8.25</v>
+      </c>
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="14">
+        <f>POWER(2,K5)</f>
+        <v>304.43702144069641</v>
+      </c>
+      <c r="L6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="17">
+        <f>K7</f>
+        <v>16744.036179238301</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="14">
+        <f>K6*B6</f>
+        <v>16744.036179238301</v>
+      </c>
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>8192</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <f>K9</f>
+        <v>58.75</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9">
+        <v>58.5</v>
+      </c>
+      <c r="K9">
+        <f>(K5*K8)+1</f>
+        <v>58.75</v>
+      </c>
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13">
+        <f>POWER(B7/B6,1/(B9-1))</f>
+        <v>1.1040895136738123</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <f>B5/2</f>
+        <v>22050</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f>B5/B8</f>
+        <v>5.38330078125</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <f>B8/2-1</f>
+        <v>4095</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
+        <v>0</v>
+      </c>
+      <c r="C17" s="12">
+        <f t="shared" ref="C17:C80" si="0">$B$6*POWER($B$11,B17)</f>
+        <v>55</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" ref="D17:D80" si="1">C17/$B$13</f>
+        <v>10.216780045351474</v>
+      </c>
+      <c r="E17" s="15">
+        <v>0</v>
+      </c>
+      <c r="F17" s="16">
+        <f>((D18-D17)/2)+D17</f>
+        <v>10.748509878467946</v>
+      </c>
+      <c r="G17" s="11">
+        <f>F17</f>
+        <v>10.748509878467946</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="6">
+        <f>B17+1</f>
+        <v>1</v>
+      </c>
+      <c r="C18" s="12">
+        <f t="shared" si="0"/>
+        <v>60.724923252059675</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="1"/>
+        <v>11.280239711584418</v>
+      </c>
+      <c r="E18" s="15">
+        <f>F17</f>
+        <v>10.748509878467946</v>
+      </c>
+      <c r="F18" s="16">
+        <f>((D19-D18)/2)+D18</f>
+        <v>11.86731704443584</v>
+      </c>
+      <c r="G18" s="11">
+        <f t="shared" ref="G18:G81" si="2">F18</f>
+        <v>11.86731704443584</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="6">
+        <f t="shared" ref="B19:B82" si="3">B18+1</f>
+        <v>2</v>
+      </c>
+      <c r="C19" s="12">
+        <f t="shared" si="0"/>
+        <v>67.04575098124613</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="1"/>
+        <v>12.454394377287263</v>
+      </c>
+      <c r="E19" s="15">
+        <f t="shared" ref="E19:E82" si="4">F18</f>
+        <v>11.86731704443584</v>
+      </c>
+      <c r="F19" s="16">
+        <f t="shared" ref="F19:F82" si="5">((D20-D19)/2)+D19</f>
+        <v>13.10258030420411</v>
+      </c>
+      <c r="G19" s="11">
+        <f t="shared" si="2"/>
+        <v>13.10258030420411</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="C20" s="12">
+        <f t="shared" si="0"/>
+        <v>74.024510594779571</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" si="1"/>
+        <v>13.750766231120958</v>
+      </c>
+      <c r="E20" s="15">
+        <f t="shared" si="4"/>
+        <v>13.10258030420411</v>
+      </c>
+      <c r="F20" s="16">
+        <f t="shared" si="5"/>
+        <v>14.466421515940787</v>
+      </c>
+      <c r="G20" s="11">
+        <f t="shared" si="2"/>
+        <v>14.466421515940787</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="C21" s="12">
+        <f t="shared" si="0"/>
+        <v>81.729685902532125</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="1"/>
+        <v>15.182076800760615</v>
+      </c>
+      <c r="E21" s="15">
+        <f t="shared" si="4"/>
+        <v>14.466421515940787</v>
+      </c>
+      <c r="F21" s="16">
+        <f t="shared" si="5"/>
+        <v>15.972224296135435</v>
+      </c>
+      <c r="G21" s="11">
+        <f t="shared" si="2"/>
+        <v>15.972224296135435</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="6">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C22" s="12">
+        <f t="shared" si="0"/>
+        <v>90.236889160840121</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="1"/>
+        <v>16.762371791510255</v>
+      </c>
+      <c r="E22" s="15">
+        <f t="shared" si="4"/>
+        <v>15.972224296135435</v>
+      </c>
+      <c r="F22" s="16">
+        <f t="shared" si="5"/>
+        <v>17.634765355409222</v>
+      </c>
+      <c r="G22" s="11">
+        <f t="shared" si="2"/>
+        <v>17.634765355409222</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="6">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="C23" s="12">
+        <f t="shared" si="0"/>
+        <v>99.62960306902967</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="1"/>
+        <v>18.507158919308186</v>
+      </c>
+      <c r="E23" s="15">
+        <f t="shared" si="4"/>
+        <v>17.634765355409222</v>
+      </c>
+      <c r="F23" s="16">
+        <f t="shared" si="5"/>
+        <v>19.470359505005561</v>
+      </c>
+      <c r="G23" s="11">
+        <f t="shared" si="2"/>
+        <v>19.470359505005561</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="6">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="C24" s="12">
+        <f t="shared" si="0"/>
+        <v>109.99999999999991</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="1"/>
+        <v>20.433560090702933</v>
+      </c>
+      <c r="E24" s="15">
+        <f t="shared" si="4"/>
+        <v>19.470359505005561</v>
+      </c>
+      <c r="F24" s="16">
+        <f t="shared" si="5"/>
+        <v>21.497019756935877</v>
+      </c>
+      <c r="G24" s="11">
+        <f t="shared" si="2"/>
+        <v>21.497019756935877</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="6">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="C25" s="12">
+        <f t="shared" si="0"/>
+        <v>121.44984650411925</v>
+      </c>
+      <c r="D25" s="7">
+        <f t="shared" si="1"/>
+        <v>22.560479423168818</v>
+      </c>
+      <c r="E25" s="15">
+        <f t="shared" si="4"/>
+        <v>21.497019756935877</v>
+      </c>
+      <c r="F25" s="16">
+        <f t="shared" si="5"/>
+        <v>23.734634088871665</v>
+      </c>
+      <c r="G25" s="11">
+        <f t="shared" si="2"/>
+        <v>23.734634088871665</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="6">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="C26" s="12">
+        <f t="shared" si="0"/>
+        <v>134.09150196249217</v>
+      </c>
+      <c r="D26" s="7">
+        <f t="shared" si="1"/>
+        <v>24.908788754574509</v>
+      </c>
+      <c r="E26" s="15">
+        <f t="shared" si="4"/>
+        <v>23.734634088871665</v>
+      </c>
+      <c r="F26" s="16">
+        <f t="shared" si="5"/>
+        <v>26.2051606084082</v>
+      </c>
+      <c r="G26" s="11">
+        <f t="shared" si="2"/>
+        <v>26.2051606084082</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="6">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="C27" s="12">
+        <f t="shared" si="0"/>
+        <v>148.049021189559</v>
+      </c>
+      <c r="D27" s="7">
+        <f t="shared" si="1"/>
+        <v>27.50153246224189</v>
+      </c>
+      <c r="E27" s="15">
+        <f t="shared" si="4"/>
+        <v>26.2051606084082</v>
+      </c>
+      <c r="F27" s="16">
+        <f t="shared" si="5"/>
+        <v>28.93284303188155</v>
+      </c>
+      <c r="G27" s="11">
+        <f t="shared" si="2"/>
+        <v>28.93284303188155</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="6">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="C28" s="12">
+        <f t="shared" si="0"/>
+        <v>163.45937180506414</v>
+      </c>
+      <c r="D28" s="7">
+        <f t="shared" si="1"/>
+        <v>30.36415360152121</v>
+      </c>
+      <c r="E28" s="15">
+        <f t="shared" si="4"/>
+        <v>28.93284303188155</v>
+      </c>
+      <c r="F28" s="16">
+        <f t="shared" si="5"/>
+        <v>31.944448592270849</v>
+      </c>
+      <c r="G28" s="11">
+        <f t="shared" si="2"/>
+        <v>31.944448592270849</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="6">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="C29" s="12">
+        <f t="shared" si="0"/>
+        <v>180.4737783216801</v>
+      </c>
+      <c r="D29" s="7">
+        <f t="shared" si="1"/>
+        <v>33.524743583020488</v>
+      </c>
+      <c r="E29" s="15">
+        <f t="shared" si="4"/>
+        <v>31.944448592270849</v>
+      </c>
+      <c r="F29" s="16">
+        <f t="shared" si="5"/>
+        <v>35.269530710818415</v>
+      </c>
+      <c r="G29" s="11">
+        <f t="shared" si="2"/>
+        <v>35.269530710818415</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="6">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="C30" s="12">
+        <f t="shared" si="0"/>
+        <v>199.25920613805917</v>
+      </c>
+      <c r="D30" s="7">
+        <f t="shared" si="1"/>
+        <v>37.014317838616343</v>
+      </c>
+      <c r="E30" s="15">
+        <f t="shared" si="4"/>
+        <v>35.269530710818415</v>
+      </c>
+      <c r="F30" s="16">
+        <f t="shared" si="5"/>
+        <v>38.940719010011087</v>
+      </c>
+      <c r="G30" s="11">
+        <f t="shared" si="2"/>
+        <v>38.940719010011087</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="6">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="C31" s="12">
+        <f t="shared" si="0"/>
+        <v>219.99999999999966</v>
+      </c>
+      <c r="D31" s="7">
+        <f t="shared" si="1"/>
+        <v>40.867120181405831</v>
+      </c>
+      <c r="E31" s="15">
+        <f t="shared" si="4"/>
+        <v>38.940719010011087</v>
+      </c>
+      <c r="F31" s="16">
+        <f t="shared" si="5"/>
+        <v>42.994039513871712</v>
+      </c>
+      <c r="G31" s="11">
+        <f t="shared" si="2"/>
+        <v>42.994039513871712</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="6">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="C32" s="12">
+        <f t="shared" si="0"/>
+        <v>242.8996930082383</v>
+      </c>
+      <c r="D32" s="7">
+        <f t="shared" si="1"/>
+        <v>45.120958846337601</v>
+      </c>
+      <c r="E32" s="15">
+        <f t="shared" si="4"/>
+        <v>42.994039513871712</v>
+      </c>
+      <c r="F32" s="16">
+        <f t="shared" si="5"/>
+        <v>47.469268177743288</v>
+      </c>
+      <c r="G32" s="11">
+        <f t="shared" si="2"/>
+        <v>47.469268177743288</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="6">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="C33" s="12">
+        <f t="shared" si="0"/>
+        <v>268.18300392498412</v>
+      </c>
+      <c r="D33" s="7">
+        <f t="shared" si="1"/>
+        <v>49.817577509148975</v>
+      </c>
+      <c r="E33" s="15">
+        <f t="shared" si="4"/>
+        <v>47.469268177743288</v>
+      </c>
+      <c r="F33" s="16">
+        <f t="shared" si="5"/>
+        <v>52.410321216816357</v>
+      </c>
+      <c r="G33" s="11">
+        <f t="shared" si="2"/>
+        <v>52.410321216816357</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="6">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="C34" s="12">
+        <f t="shared" si="0"/>
+        <v>296.09804237911783</v>
+      </c>
+      <c r="D34" s="7">
+        <f t="shared" si="1"/>
+        <v>55.003064924483745</v>
+      </c>
+      <c r="E34" s="15">
+        <f t="shared" si="4"/>
+        <v>52.410321216816357</v>
+      </c>
+      <c r="F34" s="16">
+        <f t="shared" si="5"/>
+        <v>57.865686063763057</v>
+      </c>
+      <c r="G34" s="11">
+        <f t="shared" si="2"/>
+        <v>57.865686063763057</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="6">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="C35" s="12">
+        <f t="shared" si="0"/>
+        <v>326.91874361012799</v>
+      </c>
+      <c r="D35" s="7">
+        <f t="shared" si="1"/>
+        <v>60.72830720304237</v>
+      </c>
+      <c r="E35" s="15">
+        <f t="shared" si="4"/>
+        <v>57.865686063763057</v>
+      </c>
+      <c r="F35" s="16">
+        <f t="shared" si="5"/>
+        <v>63.888897184541648</v>
+      </c>
+      <c r="G35" s="11">
+        <f t="shared" si="2"/>
+        <v>63.888897184541648</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="6">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="C36" s="12">
+        <f t="shared" si="0"/>
+        <v>360.94755664335997</v>
+      </c>
+      <c r="D36" s="7">
+        <f t="shared" si="1"/>
+        <v>67.049487166040933</v>
+      </c>
+      <c r="E36" s="15">
+        <f t="shared" si="4"/>
+        <v>63.888897184541648</v>
+      </c>
+      <c r="F36" s="16">
+        <f t="shared" si="5"/>
+        <v>70.539061421636774</v>
+      </c>
+      <c r="G36" s="11">
+        <f t="shared" si="2"/>
+        <v>70.539061421636774</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="C37" s="12">
+        <f t="shared" si="0"/>
+        <v>398.51841227611806</v>
+      </c>
+      <c r="D37" s="7">
+        <f t="shared" si="1"/>
+        <v>74.028635677232629</v>
+      </c>
+      <c r="E37" s="15">
+        <f t="shared" si="4"/>
+        <v>70.539061421636774</v>
+      </c>
+      <c r="F37" s="16">
+        <f t="shared" si="5"/>
+        <v>77.881438020022131</v>
+      </c>
+      <c r="G37" s="11">
+        <f t="shared" si="2"/>
+        <v>77.881438020022131</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="6">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="C38" s="12">
+        <f t="shared" si="0"/>
+        <v>439.99999999999903</v>
+      </c>
+      <c r="D38" s="7">
+        <f t="shared" si="1"/>
+        <v>81.734240362811619</v>
+      </c>
+      <c r="E38" s="15">
+        <f t="shared" si="4"/>
+        <v>77.881438020022131</v>
+      </c>
+      <c r="F38" s="16">
+        <f t="shared" si="5"/>
+        <v>85.988079027743382</v>
+      </c>
+      <c r="G38" s="11">
+        <f t="shared" si="2"/>
+        <v>85.988079027743382</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="6">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="C39" s="12">
+        <f t="shared" si="0"/>
+        <v>485.79938601647632</v>
+      </c>
+      <c r="D39" s="7">
+        <f t="shared" si="1"/>
+        <v>90.241917692675145</v>
+      </c>
+      <c r="E39" s="15">
+        <f t="shared" si="4"/>
+        <v>85.988079027743382</v>
+      </c>
+      <c r="F39" s="16">
+        <f t="shared" si="5"/>
+        <v>94.938536355486519</v>
+      </c>
+      <c r="G39" s="11">
+        <f t="shared" si="2"/>
+        <v>94.938536355486519</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="6">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="C40" s="12">
+        <f t="shared" si="0"/>
+        <v>536.3660078499679</v>
+      </c>
+      <c r="D40" s="7">
+        <f t="shared" si="1"/>
+        <v>99.635155018297894</v>
+      </c>
+      <c r="E40" s="15">
+        <f t="shared" si="4"/>
+        <v>94.938536355486519</v>
+      </c>
+      <c r="F40" s="16">
+        <f t="shared" si="5"/>
+        <v>104.82064243363266</v>
+      </c>
+      <c r="G40" s="11">
+        <f t="shared" si="2"/>
+        <v>104.82064243363266</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="6">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="C41" s="12">
+        <f t="shared" si="0"/>
+        <v>592.1960847582352</v>
+      </c>
+      <c r="D41" s="7">
+        <f t="shared" si="1"/>
+        <v>110.0061298489674</v>
+      </c>
+      <c r="E41" s="15">
+        <f t="shared" si="4"/>
+        <v>104.82064243363266</v>
+      </c>
+      <c r="F41" s="16">
+        <f t="shared" si="5"/>
+        <v>115.73137212752603</v>
+      </c>
+      <c r="G41" s="11">
+        <f t="shared" si="2"/>
+        <v>115.73137212752603</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="6">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="C42" s="12">
+        <f t="shared" si="0"/>
+        <v>653.83748722025553</v>
+      </c>
+      <c r="D42" s="7">
+        <f t="shared" si="1"/>
+        <v>121.45661440608465</v>
+      </c>
+      <c r="E42" s="15">
+        <f t="shared" si="4"/>
+        <v>115.73137212752603</v>
+      </c>
+      <c r="F42" s="16">
+        <f t="shared" si="5"/>
+        <v>127.77779436908321</v>
+      </c>
+      <c r="G42" s="11">
+        <f t="shared" si="2"/>
+        <v>127.77779436908321</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="6">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="C43" s="12">
+        <f t="shared" si="0"/>
+        <v>721.89511328671938</v>
+      </c>
+      <c r="D43" s="7">
+        <f t="shared" si="1"/>
+        <v>134.09897433208175</v>
+      </c>
+      <c r="E43" s="15">
+        <f t="shared" si="4"/>
+        <v>127.77779436908321</v>
+      </c>
+      <c r="F43" s="16">
+        <f t="shared" si="5"/>
+        <v>141.07812284327346</v>
+      </c>
+      <c r="G43" s="11">
+        <f t="shared" si="2"/>
+        <v>141.07812284327346</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="6">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="C44" s="12">
+        <f t="shared" si="0"/>
+        <v>797.03682455223554</v>
+      </c>
+      <c r="D44" s="7">
+        <f t="shared" si="1"/>
+        <v>148.05727135446517</v>
+      </c>
+      <c r="E44" s="15">
+        <f t="shared" si="4"/>
+        <v>141.07812284327346</v>
+      </c>
+      <c r="F44" s="16">
+        <f t="shared" si="5"/>
+        <v>155.76287604004415</v>
+      </c>
+      <c r="G44" s="11">
+        <f t="shared" si="2"/>
+        <v>155.76287604004415</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="6">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="C45" s="12">
+        <f t="shared" si="0"/>
+        <v>879.99999999999739</v>
+      </c>
+      <c r="D45" s="7">
+        <f t="shared" si="1"/>
+        <v>163.4684807256231</v>
+      </c>
+      <c r="E45" s="15">
+        <f t="shared" si="4"/>
+        <v>155.76287604004415</v>
+      </c>
+      <c r="F45" s="16">
+        <f t="shared" si="5"/>
+        <v>171.97615805548662</v>
+      </c>
+      <c r="G45" s="11">
+        <f t="shared" si="2"/>
+        <v>171.97615805548662</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="6">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="C46" s="12">
+        <f t="shared" si="0"/>
+        <v>971.59877203295184</v>
+      </c>
+      <c r="D46" s="7">
+        <f t="shared" si="1"/>
+        <v>180.48383538535015</v>
+      </c>
+      <c r="E46" s="15">
+        <f t="shared" si="4"/>
+        <v>171.97615805548662</v>
+      </c>
+      <c r="F46" s="16">
+        <f t="shared" si="5"/>
+        <v>189.87707271097287</v>
+      </c>
+      <c r="G46" s="11">
+        <f t="shared" si="2"/>
+        <v>189.87707271097287</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="6">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="C47" s="12">
+        <f t="shared" si="0"/>
+        <v>1072.7320156999349</v>
+      </c>
+      <c r="D47" s="7">
+        <f t="shared" si="1"/>
+        <v>199.27031003659562</v>
+      </c>
+      <c r="E47" s="15">
+        <f t="shared" si="4"/>
+        <v>189.87707271097287</v>
+      </c>
+      <c r="F47" s="16">
+        <f t="shared" si="5"/>
+        <v>209.64128486726511</v>
+      </c>
+      <c r="G47" s="11">
+        <f t="shared" si="2"/>
+        <v>209.64128486726511</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="6">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="C48" s="12">
+        <f t="shared" si="0"/>
+        <v>1184.3921695164693</v>
+      </c>
+      <c r="D48" s="7">
+        <f t="shared" si="1"/>
+        <v>220.01225969793461</v>
+      </c>
+      <c r="E48" s="15">
+        <f t="shared" si="4"/>
+        <v>209.64128486726511</v>
+      </c>
+      <c r="F48" s="16">
+        <f t="shared" si="5"/>
+        <v>231.46274425505186</v>
+      </c>
+      <c r="G48" s="11">
+        <f t="shared" si="2"/>
+        <v>231.46274425505186</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="6">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="C49" s="12">
+        <f t="shared" si="0"/>
+        <v>1307.6749744405101</v>
+      </c>
+      <c r="D49" s="7">
+        <f t="shared" si="1"/>
+        <v>242.91322881216914</v>
+      </c>
+      <c r="E49" s="15">
+        <f t="shared" si="4"/>
+        <v>231.46274425505186</v>
+      </c>
+      <c r="F49" s="16">
+        <f t="shared" si="5"/>
+        <v>255.55558873816619</v>
+      </c>
+      <c r="G49" s="11">
+        <f t="shared" si="2"/>
+        <v>255.55558873816619</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="6">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="C50" s="12">
+        <f t="shared" si="0"/>
+        <v>1443.7902265734376</v>
+      </c>
+      <c r="D50" s="7">
+        <f t="shared" si="1"/>
+        <v>268.19794866416328</v>
+      </c>
+      <c r="E50" s="15">
+        <f t="shared" si="4"/>
+        <v>255.55558873816619</v>
+      </c>
+      <c r="F50" s="16">
+        <f t="shared" si="5"/>
+        <v>282.1562456865467</v>
+      </c>
+      <c r="G50" s="11">
+        <f t="shared" si="2"/>
+        <v>282.1562456865467</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="6">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="C51" s="12">
+        <f t="shared" si="0"/>
+        <v>1594.07364910447</v>
+      </c>
+      <c r="D51" s="7">
+        <f t="shared" si="1"/>
+        <v>296.11454270893012</v>
+      </c>
+      <c r="E51" s="15">
+        <f t="shared" si="4"/>
+        <v>282.1562456865467</v>
+      </c>
+      <c r="F51" s="16">
+        <f t="shared" si="5"/>
+        <v>311.52575208008807</v>
+      </c>
+      <c r="G51" s="11">
+        <f t="shared" si="2"/>
+        <v>311.52575208008807</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="6">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="C52" s="12">
+        <f t="shared" si="0"/>
+        <v>1759.9999999999934</v>
+      </c>
+      <c r="D52" s="7">
+        <f t="shared" si="1"/>
+        <v>326.93696145124596</v>
+      </c>
+      <c r="E52" s="15">
+        <f t="shared" si="4"/>
+        <v>311.52575208008807</v>
+      </c>
+      <c r="F52" s="16">
+        <f t="shared" si="5"/>
+        <v>343.95231611097302</v>
+      </c>
+      <c r="G52" s="11">
+        <f t="shared" si="2"/>
+        <v>343.95231611097302</v>
+      </c>
+      <c r="H52" s="14"/>
+      <c r="I52" s="19"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="6">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="C53" s="12">
+        <f t="shared" si="0"/>
+        <v>1943.1975440659021</v>
+      </c>
+      <c r="D53" s="7">
+        <f t="shared" si="1"/>
+        <v>360.96767077070001</v>
+      </c>
+      <c r="E53" s="15">
+        <f t="shared" si="4"/>
+        <v>343.95231611097302</v>
+      </c>
+      <c r="F53" s="16">
+        <f t="shared" si="5"/>
+        <v>379.75414542194551</v>
+      </c>
+      <c r="G53" s="11">
+        <f t="shared" si="2"/>
+        <v>379.75414542194551</v>
+      </c>
+      <c r="H53" s="14"/>
+      <c r="I53" s="19"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="6">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="C54" s="12">
+        <f t="shared" si="0"/>
+        <v>2145.4640313998684</v>
+      </c>
+      <c r="D54" s="7">
+        <f t="shared" si="1"/>
+        <v>398.54062007319095</v>
+      </c>
+      <c r="E54" s="15">
+        <f t="shared" si="4"/>
+        <v>379.75414542194551</v>
+      </c>
+      <c r="F54" s="16">
+        <f t="shared" si="5"/>
+        <v>419.28256973452994</v>
+      </c>
+      <c r="G54" s="11">
+        <f t="shared" si="2"/>
+        <v>419.28256973452994</v>
+      </c>
+      <c r="H54" s="14"/>
+      <c r="I54" s="19"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="6">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="C55" s="12">
+        <f t="shared" si="0"/>
+        <v>2368.7843390329372</v>
+      </c>
+      <c r="D55" s="7">
+        <f t="shared" si="1"/>
+        <v>440.02451939586894</v>
+      </c>
+      <c r="E55" s="15">
+        <f t="shared" si="4"/>
+        <v>419.28256973452994</v>
+      </c>
+      <c r="F55" s="16">
+        <f t="shared" si="5"/>
+        <v>462.92548851010343</v>
+      </c>
+      <c r="G55" s="11">
+        <f t="shared" si="2"/>
+        <v>462.92548851010343</v>
+      </c>
+      <c r="H55" s="14"/>
+      <c r="I55" s="19"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="6">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="C56" s="12">
+        <f t="shared" si="0"/>
+        <v>2615.3499488810185</v>
+      </c>
+      <c r="D56" s="7">
+        <f t="shared" si="1"/>
+        <v>485.82645762433793</v>
+      </c>
+      <c r="E56" s="15">
+        <f t="shared" si="4"/>
+        <v>462.92548851010343</v>
+      </c>
+      <c r="F56" s="16">
+        <f t="shared" si="5"/>
+        <v>511.11117747633205</v>
+      </c>
+      <c r="G56" s="11">
+        <f t="shared" si="2"/>
+        <v>511.11117747633205</v>
+      </c>
+      <c r="H56" s="14"/>
+      <c r="I56" s="19"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="6">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="C57" s="12">
+        <f t="shared" si="0"/>
+        <v>2887.580453146873</v>
+      </c>
+      <c r="D57" s="7">
+        <f t="shared" si="1"/>
+        <v>536.3958973283261</v>
+      </c>
+      <c r="E57" s="15">
+        <f t="shared" si="4"/>
+        <v>511.11117747633205</v>
+      </c>
+      <c r="F57" s="16">
+        <f t="shared" si="5"/>
+        <v>564.31249137309294</v>
+      </c>
+      <c r="G57" s="11">
+        <f t="shared" si="2"/>
+        <v>564.31249137309294</v>
+      </c>
+      <c r="H57" s="14"/>
+      <c r="I57" s="19"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="6">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="C58" s="12">
+        <f t="shared" si="0"/>
+        <v>3188.1472982089376</v>
+      </c>
+      <c r="D58" s="7">
+        <f t="shared" si="1"/>
+        <v>592.22908541785978</v>
+      </c>
+      <c r="E58" s="15">
+        <f t="shared" si="4"/>
+        <v>564.31249137309294</v>
+      </c>
+      <c r="F58" s="16">
+        <f t="shared" si="5"/>
+        <v>623.05150416017557</v>
+      </c>
+      <c r="G58" s="11">
+        <f t="shared" si="2"/>
+        <v>623.05150416017557</v>
+      </c>
+      <c r="H58" s="14"/>
+      <c r="I58" s="19"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="6">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="C59" s="12">
+        <f t="shared" si="0"/>
+        <v>3519.9999999999841</v>
+      </c>
+      <c r="D59" s="7">
+        <f t="shared" si="1"/>
+        <v>653.87392290249136</v>
+      </c>
+      <c r="E59" s="15">
+        <f t="shared" si="4"/>
+        <v>623.05150416017557</v>
+      </c>
+      <c r="F59" s="16">
+        <f t="shared" si="5"/>
+        <v>687.90463222194535</v>
+      </c>
+      <c r="G59" s="11">
+        <f t="shared" si="2"/>
+        <v>687.90463222194535</v>
+      </c>
+      <c r="H59" s="14"/>
+      <c r="I59" s="19"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="6">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="C60" s="12">
+        <f t="shared" si="0"/>
+        <v>3886.395088131801</v>
+      </c>
+      <c r="D60" s="7">
+        <f t="shared" si="1"/>
+        <v>721.93534154139945</v>
+      </c>
+      <c r="E60" s="15">
+        <f t="shared" si="4"/>
+        <v>687.90463222194535</v>
+      </c>
+      <c r="F60" s="16">
+        <f t="shared" si="5"/>
+        <v>759.50829084389034</v>
+      </c>
+      <c r="G60" s="11">
+        <f t="shared" si="2"/>
+        <v>759.50829084389034</v>
+      </c>
+      <c r="H60" s="14"/>
+      <c r="I60" s="19"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="6">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="C61" s="12">
+        <f t="shared" si="0"/>
+        <v>4290.9280627997332</v>
+      </c>
+      <c r="D61" s="7">
+        <f t="shared" si="1"/>
+        <v>797.08124014638133</v>
+      </c>
+      <c r="E61" s="15">
+        <f t="shared" si="4"/>
+        <v>759.50829084389034</v>
+      </c>
+      <c r="F61" s="16">
+        <f t="shared" si="5"/>
+        <v>838.56513946905932</v>
+      </c>
+      <c r="G61" s="11">
+        <f t="shared" si="2"/>
+        <v>838.56513946905932</v>
+      </c>
+      <c r="H61" s="14"/>
+      <c r="I61" s="19"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="6">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="C62" s="12">
+        <f t="shared" si="0"/>
+        <v>4737.5686780658707</v>
+      </c>
+      <c r="D62" s="7">
+        <f t="shared" si="1"/>
+        <v>880.0490387917373</v>
+      </c>
+      <c r="E62" s="15">
+        <f t="shared" si="4"/>
+        <v>838.56513946905932</v>
+      </c>
+      <c r="F62" s="16">
+        <f t="shared" si="5"/>
+        <v>925.85097702020619</v>
+      </c>
+      <c r="G62" s="11">
+        <f t="shared" si="2"/>
+        <v>925.85097702020619</v>
+      </c>
+      <c r="H62" s="14"/>
+      <c r="I62" s="19"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="6">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="C63" s="12">
+        <f t="shared" si="0"/>
+        <v>5230.6998977620324</v>
+      </c>
+      <c r="D63" s="7">
+        <f t="shared" si="1"/>
+        <v>971.65291524867507</v>
+      </c>
+      <c r="E63" s="15">
+        <f t="shared" si="4"/>
+        <v>925.85097702020619</v>
+      </c>
+      <c r="F63" s="16">
+        <f t="shared" si="5"/>
+        <v>1022.2223549526633</v>
+      </c>
+      <c r="G63" s="11">
+        <f t="shared" si="2"/>
+        <v>1022.2223549526633</v>
+      </c>
+      <c r="H63" s="14"/>
+      <c r="I63" s="19"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="6">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="C64" s="12">
+        <f t="shared" si="0"/>
+        <v>5775.1609062937414</v>
+      </c>
+      <c r="D64" s="7">
+        <f t="shared" si="1"/>
+        <v>1072.7917946566515</v>
+      </c>
+      <c r="E64" s="15">
+        <f t="shared" si="4"/>
+        <v>1022.2223549526633</v>
+      </c>
+      <c r="F64" s="16">
+        <f t="shared" si="5"/>
+        <v>1128.6249827461852</v>
+      </c>
+      <c r="G64" s="11">
+        <f t="shared" si="2"/>
+        <v>1128.6249827461852</v>
+      </c>
+      <c r="H64" s="14"/>
+      <c r="I64" s="19"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="6">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="C65" s="12">
+        <f t="shared" si="0"/>
+        <v>6376.2945964178707</v>
+      </c>
+      <c r="D65" s="7">
+        <f t="shared" si="1"/>
+        <v>1184.4581708357186</v>
+      </c>
+      <c r="E65" s="15">
+        <f t="shared" si="4"/>
+        <v>1128.6249827461852</v>
+      </c>
+      <c r="F65" s="16">
+        <f t="shared" si="5"/>
+        <v>1246.1030083203502</v>
+      </c>
+      <c r="G65" s="11">
+        <f t="shared" si="2"/>
+        <v>1246.1030083203502</v>
+      </c>
+      <c r="H65" s="14"/>
+      <c r="I65" s="19"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="6">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="C66" s="12">
+        <f t="shared" si="0"/>
+        <v>7039.9999999999636</v>
+      </c>
+      <c r="D66" s="7">
+        <f t="shared" si="1"/>
+        <v>1307.7478458049818</v>
+      </c>
+      <c r="E66" s="15">
+        <f t="shared" si="4"/>
+        <v>1246.1030083203502</v>
+      </c>
+      <c r="F66" s="16">
+        <f t="shared" si="5"/>
+        <v>1375.8092644438898</v>
+      </c>
+      <c r="G66" s="11">
+        <f t="shared" si="2"/>
+        <v>1375.8092644438898</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="6">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="C67" s="12">
+        <f t="shared" si="0"/>
+        <v>7772.7901762635975</v>
+      </c>
+      <c r="D67" s="7">
+        <f t="shared" si="1"/>
+        <v>1443.870683082798</v>
+      </c>
+      <c r="E67" s="15">
+        <f t="shared" si="4"/>
+        <v>1375.8092644438898</v>
+      </c>
+      <c r="F67" s="16">
+        <f t="shared" si="5"/>
+        <v>1519.0165816877798</v>
+      </c>
+      <c r="G67" s="11">
+        <f t="shared" si="2"/>
+        <v>1519.0165816877798</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="6">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="C68" s="12">
+        <f t="shared" si="0"/>
+        <v>8581.8561255994591</v>
+      </c>
+      <c r="D68" s="7">
+        <f t="shared" si="1"/>
+        <v>1594.1624802927613</v>
+      </c>
+      <c r="E68" s="15">
+        <f t="shared" si="4"/>
+        <v>1519.0165816877798</v>
+      </c>
+      <c r="F68" s="16">
+        <f t="shared" si="5"/>
+        <v>1677.1302789381173</v>
+      </c>
+      <c r="G68" s="11">
+        <f t="shared" si="2"/>
+        <v>1677.1302789381173</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="6">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="C69" s="12">
+        <f t="shared" si="0"/>
+        <v>9475.1373561317341</v>
+      </c>
+      <c r="D69" s="7">
+        <f t="shared" si="1"/>
+        <v>1760.0980775834732</v>
+      </c>
+      <c r="E69" s="15">
+        <f t="shared" si="4"/>
+        <v>1677.1302789381173</v>
+      </c>
+      <c r="F69" s="16">
+        <f t="shared" si="5"/>
+        <v>1851.701954040411</v>
+      </c>
+      <c r="G69" s="11">
+        <f t="shared" si="2"/>
+        <v>1851.701954040411</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="6">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="C70" s="12">
+        <f t="shared" si="0"/>
+        <v>10461.399795524057</v>
+      </c>
+      <c r="D70" s="7">
+        <f t="shared" si="1"/>
+        <v>1943.3058304973488</v>
+      </c>
+      <c r="E70" s="15">
+        <f t="shared" si="4"/>
+        <v>1851.701954040411</v>
+      </c>
+      <c r="F70" s="16">
+        <f t="shared" si="5"/>
+        <v>2044.4447099053252</v>
+      </c>
+      <c r="G70" s="11">
+        <f t="shared" si="2"/>
+        <v>2044.4447099053252</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="6">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="C71" s="12">
+        <f t="shared" si="0"/>
+        <v>11550.321812587476</v>
+      </c>
+      <c r="D71" s="7">
+        <f t="shared" si="1"/>
+        <v>2145.5835893133017</v>
+      </c>
+      <c r="E71" s="15">
+        <f t="shared" si="4"/>
+        <v>2044.4447099053252</v>
+      </c>
+      <c r="F71" s="16">
+        <f t="shared" si="5"/>
+        <v>2257.2499654923686</v>
+      </c>
+      <c r="G71" s="11">
+        <f t="shared" si="2"/>
+        <v>2257.2499654923686</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="6">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="C72" s="12">
+        <f t="shared" si="0"/>
+        <v>12752.589192835732</v>
+      </c>
+      <c r="D72" s="7">
+        <f t="shared" si="1"/>
+        <v>2368.9163416714359</v>
+      </c>
+      <c r="E72" s="15">
+        <f t="shared" si="4"/>
+        <v>2257.2499654923686</v>
+      </c>
+      <c r="F72" s="16">
+        <f t="shared" si="5"/>
+        <v>2492.2060166406986</v>
+      </c>
+      <c r="G72" s="11">
+        <f t="shared" si="2"/>
+        <v>2492.2060166406986</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="6">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="C73" s="12">
+        <f t="shared" si="0"/>
+        <v>14079.999999999915</v>
+      </c>
+      <c r="D73" s="7">
+        <f t="shared" si="1"/>
+        <v>2615.4956916099613</v>
+      </c>
+      <c r="E73" s="15">
+        <f t="shared" si="4"/>
+        <v>2492.2060166406986</v>
+      </c>
+      <c r="F73" s="16">
+        <f t="shared" si="5"/>
+        <v>2751.6185288877778</v>
+      </c>
+      <c r="G73" s="11">
+        <f t="shared" si="2"/>
+        <v>2751.6185288877778</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="6">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="C74" s="12">
+        <f t="shared" si="0"/>
+        <v>15545.580352527182</v>
+      </c>
+      <c r="D74" s="7">
+        <f t="shared" si="1"/>
+        <v>2887.7413661655937</v>
+      </c>
+      <c r="E74" s="15">
+        <f t="shared" si="4"/>
+        <v>2751.6185288877778</v>
+      </c>
+      <c r="F74" s="16">
+        <f t="shared" si="5"/>
+        <v>3038.0331633755568</v>
+      </c>
+      <c r="G74" s="11">
+        <f t="shared" si="2"/>
+        <v>3038.0331633755568</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="6">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="C75" s="12">
+        <f t="shared" si="0"/>
+        <v>17163.712251198907</v>
+      </c>
+      <c r="D75" s="7">
+        <f t="shared" si="1"/>
+        <v>3188.3249605855203</v>
+      </c>
+      <c r="E75" s="15">
+        <f t="shared" si="4"/>
+        <v>3038.0331633755568</v>
+      </c>
+      <c r="F75" s="16">
+        <f t="shared" si="5"/>
+        <v>3354.2605578762323</v>
+      </c>
+      <c r="G75" s="11">
+        <f t="shared" si="2"/>
+        <v>3354.2605578762323</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="6">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="C76" s="12">
+        <f t="shared" si="0"/>
+        <v>18950.274712263454</v>
+      </c>
+      <c r="D76" s="7">
+        <f t="shared" si="1"/>
+        <v>3520.1961551669438</v>
+      </c>
+      <c r="E76" s="15">
+        <f t="shared" si="4"/>
+        <v>3354.2605578762323</v>
+      </c>
+      <c r="F76" s="16">
+        <f t="shared" si="5"/>
+        <v>3703.4039080808193</v>
+      </c>
+      <c r="G76" s="11">
+        <f t="shared" si="2"/>
+        <v>3703.4039080808193</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="6">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="C77" s="12">
+        <f t="shared" si="0"/>
+        <v>20922.7995910481</v>
+      </c>
+      <c r="D77" s="7">
+        <f t="shared" si="1"/>
+        <v>3886.6116609946948</v>
+      </c>
+      <c r="E77" s="15">
+        <f t="shared" si="4"/>
+        <v>3703.4039080808193</v>
+      </c>
+      <c r="F77" s="16">
+        <f t="shared" si="5"/>
+        <v>4088.8894198106473</v>
+      </c>
+      <c r="G77" s="11">
+        <f t="shared" si="2"/>
+        <v>4088.8894198106473</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="6">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="C78" s="12">
+        <f t="shared" si="0"/>
+        <v>23100.643625174933</v>
+      </c>
+      <c r="D78" s="7">
+        <f t="shared" si="1"/>
+        <v>4291.1671786265997</v>
+      </c>
+      <c r="E78" s="15">
+        <f t="shared" si="4"/>
+        <v>4088.8894198106473</v>
+      </c>
+      <c r="F78" s="16">
+        <f t="shared" si="5"/>
+        <v>4514.4999309847335</v>
+      </c>
+      <c r="G78" s="11">
+        <f t="shared" si="2"/>
+        <v>4514.4999309847335</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="6">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="C79" s="12">
+        <f t="shared" si="0"/>
+        <v>25505.178385671439</v>
+      </c>
+      <c r="D79" s="7">
+        <f t="shared" si="1"/>
+        <v>4737.8326833428673</v>
+      </c>
+      <c r="E79" s="15">
+        <f t="shared" si="4"/>
+        <v>4514.4999309847335</v>
+      </c>
+      <c r="F79" s="16">
+        <f t="shared" si="5"/>
+        <v>4984.4120332813927</v>
+      </c>
+      <c r="G79" s="11">
+        <f t="shared" si="2"/>
+        <v>4984.4120332813927</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="6">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="C80" s="12">
+        <f t="shared" si="0"/>
+        <v>28159.999999999807</v>
+      </c>
+      <c r="D80" s="7">
+        <f t="shared" si="1"/>
+        <v>5230.991383219919</v>
+      </c>
+      <c r="E80" s="15">
+        <f t="shared" si="4"/>
+        <v>4984.4120332813927</v>
+      </c>
+      <c r="F80" s="16">
+        <f t="shared" si="5"/>
+        <v>5503.2370577755501</v>
+      </c>
+      <c r="G80" s="11">
+        <f t="shared" si="2"/>
+        <v>5503.2370577755501</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="6">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="C81" s="12">
+        <f t="shared" ref="C81:C98" si="6">$B$6*POWER($B$11,B81)</f>
+        <v>31091.160705054339</v>
+      </c>
+      <c r="D81" s="7">
+        <f t="shared" ref="D81:D98" si="7">C81/$B$13</f>
+        <v>5775.482732331182</v>
+      </c>
+      <c r="E81" s="15">
+        <f t="shared" si="4"/>
+        <v>5503.2370577755501</v>
+      </c>
+      <c r="F81" s="16">
+        <f t="shared" si="5"/>
+        <v>6076.0663267511081</v>
+      </c>
+      <c r="G81" s="11">
+        <f t="shared" si="2"/>
+        <v>6076.0663267511081</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="6">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="C82" s="12">
+        <f t="shared" si="6"/>
+        <v>34327.424502397786</v>
+      </c>
+      <c r="D82" s="7">
+        <f t="shared" si="7"/>
+        <v>6376.6499211710352</v>
+      </c>
+      <c r="E82" s="15">
+        <f t="shared" si="4"/>
+        <v>6076.0663267511081</v>
+      </c>
+      <c r="F82" s="16">
+        <f t="shared" si="5"/>
+        <v>6708.5211157524591</v>
+      </c>
+      <c r="G82" s="11">
+        <f t="shared" ref="G82:G98" si="8">F82</f>
+        <v>6708.5211157524591</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83" s="6">
+        <f t="shared" ref="B83:B115" si="9">B82+1</f>
+        <v>66</v>
+      </c>
+      <c r="C83" s="12">
+        <f t="shared" si="6"/>
+        <v>37900.549424526878</v>
+      </c>
+      <c r="D83" s="7">
+        <f t="shared" si="7"/>
+        <v>7040.3923103338821</v>
+      </c>
+      <c r="E83" s="15">
+        <f t="shared" ref="E83:E98" si="10">F82</f>
+        <v>6708.5211157524591</v>
+      </c>
+      <c r="F83" s="16">
+        <f t="shared" ref="F83:F98" si="11">((D84-D83)/2)+D83</f>
+        <v>7406.8078161616322</v>
+      </c>
+      <c r="G83" s="11">
+        <f t="shared" si="8"/>
+        <v>7406.8078161616322</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="6">
+        <f t="shared" si="9"/>
+        <v>67</v>
+      </c>
+      <c r="C84" s="12">
+        <f t="shared" si="6"/>
+        <v>41845.599182096164</v>
+      </c>
+      <c r="D84" s="7">
+        <f t="shared" si="7"/>
+        <v>7773.2233219893824</v>
+      </c>
+      <c r="E84" s="15">
+        <f t="shared" si="10"/>
+        <v>7406.8078161616322</v>
+      </c>
+      <c r="F84" s="16">
+        <f t="shared" si="11"/>
+        <v>8177.7788396212873</v>
+      </c>
+      <c r="G84" s="11">
+        <f t="shared" si="8"/>
+        <v>8177.7788396212873</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="6">
+        <f t="shared" si="9"/>
+        <v>68</v>
+      </c>
+      <c r="C85" s="12">
+        <f t="shared" si="6"/>
+        <v>46201.287250349829</v>
+      </c>
+      <c r="D85" s="7">
+        <f t="shared" si="7"/>
+        <v>8582.3343572531921</v>
+      </c>
+      <c r="E85" s="15">
+        <f t="shared" si="10"/>
+        <v>8177.7788396212873</v>
+      </c>
+      <c r="F85" s="16">
+        <f t="shared" si="11"/>
+        <v>9028.9998619694597</v>
+      </c>
+      <c r="G85" s="11">
+        <f t="shared" si="8"/>
+        <v>9028.9998619694597</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="6">
+        <f t="shared" si="9"/>
+        <v>69</v>
+      </c>
+      <c r="C86" s="12">
+        <f t="shared" si="6"/>
+        <v>51010.356771342842</v>
+      </c>
+      <c r="D86" s="7">
+        <f t="shared" si="7"/>
+        <v>9475.6653666857273</v>
+      </c>
+      <c r="E86" s="15">
+        <f t="shared" si="10"/>
+        <v>9028.9998619694597</v>
+      </c>
+      <c r="F86" s="16">
+        <f t="shared" si="11"/>
+        <v>9968.8240665627782</v>
+      </c>
+      <c r="G86" s="11">
+        <f t="shared" si="8"/>
+        <v>9968.8240665627782</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="6">
+        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+      <c r="C87" s="12">
+        <f t="shared" si="6"/>
+        <v>56319.999999999571</v>
+      </c>
+      <c r="D87" s="7">
+        <f t="shared" si="7"/>
+        <v>10461.982766439829</v>
+      </c>
+      <c r="E87" s="15">
+        <f t="shared" si="10"/>
+        <v>9968.8240665627782</v>
+      </c>
+      <c r="F87" s="16">
+        <f t="shared" si="11"/>
+        <v>11006.474115551093</v>
+      </c>
+      <c r="G87" s="11">
+        <f t="shared" si="8"/>
+        <v>11006.474115551093</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="6">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="C88" s="12">
+        <f t="shared" si="6"/>
+        <v>62182.321410108634</v>
+      </c>
+      <c r="D88" s="7">
+        <f t="shared" si="7"/>
+        <v>11550.965464662357</v>
+      </c>
+      <c r="E88" s="15">
+        <f t="shared" si="10"/>
+        <v>11006.474115551093</v>
+      </c>
+      <c r="F88" s="16">
+        <f t="shared" si="11"/>
+        <v>12152.132653502209</v>
+      </c>
+      <c r="G88" s="11">
+        <f t="shared" si="8"/>
+        <v>12152.132653502209</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="6">
+        <f t="shared" si="9"/>
+        <v>72</v>
+      </c>
+      <c r="C89" s="12">
+        <f t="shared" si="6"/>
+        <v>68654.849004795513</v>
+      </c>
+      <c r="D89" s="7">
+        <f t="shared" si="7"/>
+        <v>12753.299842342059</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="10"/>
+        <v>12152.132653502209</v>
+      </c>
+      <c r="F89" s="16">
+        <f t="shared" si="11"/>
+        <v>13417.042231504907</v>
+      </c>
+      <c r="G89" s="11">
+        <f t="shared" si="8"/>
+        <v>13417.042231504907</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="6">
+        <f t="shared" si="9"/>
+        <v>73</v>
+      </c>
+      <c r="C90" s="12">
+        <f t="shared" si="6"/>
+        <v>75801.098849053698</v>
+      </c>
+      <c r="D90" s="7">
+        <f t="shared" si="7"/>
+        <v>14080.784620667753</v>
+      </c>
+      <c r="E90" s="15">
+        <f t="shared" si="10"/>
+        <v>13417.042231504907</v>
+      </c>
+      <c r="F90" s="16">
+        <f t="shared" si="11"/>
+        <v>14813.615632323254</v>
+      </c>
+      <c r="G90" s="11">
+        <f t="shared" si="8"/>
+        <v>14813.615632323254</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="6">
+        <f t="shared" si="9"/>
+        <v>74</v>
+      </c>
+      <c r="C91" s="12">
+        <f t="shared" si="6"/>
+        <v>83691.198364192256</v>
+      </c>
+      <c r="D91" s="7">
+        <f t="shared" si="7"/>
+        <v>15546.446643978752</v>
+      </c>
+      <c r="E91" s="15">
+        <f t="shared" si="10"/>
+        <v>14813.615632323254</v>
+      </c>
+      <c r="F91" s="16">
+        <f t="shared" si="11"/>
+        <v>16355.557679242564</v>
+      </c>
+      <c r="G91" s="11">
+        <f t="shared" si="8"/>
+        <v>16355.557679242564</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="6">
+        <f t="shared" si="9"/>
+        <v>75</v>
+      </c>
+      <c r="C92" s="12">
+        <f t="shared" si="6"/>
+        <v>92402.574500699586</v>
+      </c>
+      <c r="D92" s="7">
+        <f t="shared" si="7"/>
+        <v>17164.668714506373</v>
+      </c>
+      <c r="E92" s="15">
+        <f t="shared" si="10"/>
+        <v>16355.557679242564</v>
+      </c>
+      <c r="F92" s="16">
+        <f t="shared" si="11"/>
+        <v>18057.999723938905</v>
+      </c>
+      <c r="G92" s="11">
+        <f t="shared" si="8"/>
+        <v>18057.999723938905</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="6">
+        <f t="shared" si="9"/>
+        <v>76</v>
+      </c>
+      <c r="C93" s="12">
+        <f t="shared" si="6"/>
+        <v>102020.7135426856</v>
+      </c>
+      <c r="D93" s="7">
+        <f t="shared" si="7"/>
+        <v>18951.330733371437</v>
+      </c>
+      <c r="E93" s="15">
+        <f t="shared" si="10"/>
+        <v>18057.999723938905</v>
+      </c>
+      <c r="F93" s="16">
+        <f t="shared" si="11"/>
+        <v>19937.648133125542</v>
+      </c>
+      <c r="G93" s="11">
+        <f t="shared" si="8"/>
+        <v>19937.648133125542</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="6">
+        <f t="shared" si="9"/>
+        <v>77</v>
+      </c>
+      <c r="C94" s="12">
+        <f t="shared" si="6"/>
+        <v>112639.99999999907</v>
+      </c>
+      <c r="D94" s="7">
+        <f t="shared" si="7"/>
+        <v>20923.965532879647</v>
+      </c>
+      <c r="E94" s="15">
+        <f t="shared" si="10"/>
+        <v>19937.648133125542</v>
+      </c>
+      <c r="F94" s="16">
+        <f t="shared" si="11"/>
+        <v>22012.948231102171</v>
+      </c>
+      <c r="G94" s="11">
+        <f t="shared" si="8"/>
+        <v>22012.948231102171</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="6">
+        <f t="shared" si="9"/>
+        <v>78</v>
+      </c>
+      <c r="C95" s="12">
+        <f t="shared" si="6"/>
+        <v>124364.64282021717</v>
+      </c>
+      <c r="D95" s="7">
+        <f t="shared" si="7"/>
+        <v>23101.930929324695</v>
+      </c>
+      <c r="E95" s="15">
+        <f t="shared" si="10"/>
+        <v>22012.948231102171</v>
+      </c>
+      <c r="F95" s="16">
+        <f t="shared" si="11"/>
+        <v>24304.2653070044</v>
+      </c>
+      <c r="G95" s="11">
+        <f t="shared" si="8"/>
+        <v>24304.2653070044</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="6">
+        <f t="shared" si="9"/>
+        <v>79</v>
+      </c>
+      <c r="C96" s="12">
+        <f t="shared" si="6"/>
+        <v>137309.69800959094</v>
+      </c>
+      <c r="D96" s="7">
+        <f t="shared" si="7"/>
+        <v>25506.599684684104</v>
+      </c>
+      <c r="E96" s="15">
+        <f t="shared" si="10"/>
+        <v>24304.2653070044</v>
+      </c>
+      <c r="F96" s="16">
+        <f t="shared" si="11"/>
+        <v>26834.084463009796</v>
+      </c>
+      <c r="G96" s="11">
+        <f t="shared" si="8"/>
+        <v>26834.084463009796</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B97" s="6">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="C97" s="12">
+        <f t="shared" si="6"/>
+        <v>151602.19769810731</v>
+      </c>
+      <c r="D97" s="7">
+        <f t="shared" si="7"/>
+        <v>28161.569241335488</v>
+      </c>
+      <c r="E97" s="15">
+        <f t="shared" si="10"/>
+        <v>26834.084463009796</v>
+      </c>
+      <c r="F97" s="16">
+        <f t="shared" si="11"/>
+        <v>29627.231264646489</v>
+      </c>
+      <c r="G97" s="11">
+        <f t="shared" si="8"/>
+        <v>29627.231264646489</v>
+      </c>
+      <c r="J97" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B98" s="6">
+        <f t="shared" si="9"/>
+        <v>81</v>
+      </c>
+      <c r="C98" s="12">
+        <f t="shared" si="6"/>
+        <v>167382.39672838442</v>
+      </c>
+      <c r="D98" s="7">
+        <f t="shared" si="7"/>
+        <v>31092.89328795749</v>
+      </c>
+      <c r="E98" s="15">
+        <f t="shared" si="10"/>
+        <v>29627.231264646489</v>
+      </c>
+      <c r="F98" s="16">
+        <f t="shared" si="11"/>
+        <v>32711.115358485105</v>
+      </c>
+      <c r="G98" s="11">
+        <f t="shared" si="8"/>
+        <v>32711.115358485105</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B99" s="6">
+        <f t="shared" si="9"/>
+        <v>82</v>
+      </c>
+      <c r="C99" s="12">
+        <f t="shared" ref="C99:C106" si="12">$B$6*POWER($B$11,B99)</f>
+        <v>184805.14900139903</v>
+      </c>
+      <c r="D99" s="7">
+        <f t="shared" ref="D99:D106" si="13">C99/$B$13</f>
+        <v>34329.337429012718</v>
+      </c>
+      <c r="E99" s="15">
+        <f t="shared" ref="E99:E106" si="14">F98</f>
+        <v>32711.115358485105</v>
+      </c>
+      <c r="F99" s="16">
+        <f t="shared" ref="F99:F106" si="15">((D100-D99)/2)+D99</f>
+        <v>36115.999447877781</v>
+      </c>
+      <c r="G99" s="11">
+        <f t="shared" ref="G99:G106" si="16">F99</f>
+        <v>36115.999447877781</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B100" s="6">
+        <f t="shared" si="9"/>
+        <v>83</v>
+      </c>
+      <c r="C100" s="12">
+        <f t="shared" si="12"/>
+        <v>204041.42708537108</v>
+      </c>
+      <c r="D100" s="7">
+        <f t="shared" si="13"/>
+        <v>37902.661466742851</v>
+      </c>
+      <c r="E100" s="15">
+        <f t="shared" si="14"/>
+        <v>36115.999447877781</v>
+      </c>
+      <c r="F100" s="16">
+        <f t="shared" si="15"/>
+        <v>39875.296266251054</v>
+      </c>
+      <c r="G100" s="11">
+        <f t="shared" si="16"/>
+        <v>39875.296266251054</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B101" s="6">
+        <f t="shared" si="9"/>
+        <v>84</v>
+      </c>
+      <c r="C101" s="12">
+        <f t="shared" si="12"/>
+        <v>225279.99999999796</v>
+      </c>
+      <c r="D101" s="7">
+        <f t="shared" si="13"/>
+        <v>41847.931065759258</v>
+      </c>
+      <c r="E101" s="15">
+        <f t="shared" si="14"/>
+        <v>39875.296266251054</v>
+      </c>
+      <c r="F101" s="16">
+        <f t="shared" si="15"/>
+        <v>44025.896462204313</v>
+      </c>
+      <c r="G101" s="11">
+        <f t="shared" si="16"/>
+        <v>44025.896462204313</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B102" s="6">
+        <f t="shared" si="9"/>
+        <v>85</v>
+      </c>
+      <c r="C102" s="12">
+        <f t="shared" si="12"/>
+        <v>248729.28564043419</v>
+      </c>
+      <c r="D102" s="7">
+        <f t="shared" si="13"/>
+        <v>46203.861858649361</v>
+      </c>
+      <c r="E102" s="15">
+        <f t="shared" si="14"/>
+        <v>44025.896462204313</v>
+      </c>
+      <c r="F102" s="16">
+        <f t="shared" si="15"/>
+        <v>48608.530614008763</v>
+      </c>
+      <c r="G102" s="11">
+        <f t="shared" si="16"/>
+        <v>48608.530614008763</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B103" s="6">
+        <f t="shared" si="9"/>
+        <v>86</v>
+      </c>
+      <c r="C103" s="12">
+        <f t="shared" si="12"/>
+        <v>274619.3960191817</v>
+      </c>
+      <c r="D103" s="7">
+        <f t="shared" si="13"/>
+        <v>51013.199369368172</v>
+      </c>
+      <c r="E103" s="15">
+        <f t="shared" si="14"/>
+        <v>48608.530614008763</v>
+      </c>
+      <c r="F103" s="16">
+        <f t="shared" si="15"/>
+        <v>53668.168926019549</v>
+      </c>
+      <c r="G103" s="11">
+        <f t="shared" si="16"/>
+        <v>53668.168926019549</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B104" s="6">
+        <f t="shared" si="9"/>
+        <v>87</v>
+      </c>
+      <c r="C104" s="12">
+        <f t="shared" si="12"/>
+        <v>303204.39539621433</v>
+      </c>
+      <c r="D104" s="7">
+        <f t="shared" si="13"/>
+        <v>56323.138482670925</v>
+      </c>
+      <c r="E104" s="15">
+        <f t="shared" si="14"/>
+        <v>53668.168926019549</v>
+      </c>
+      <c r="F104" s="16">
+        <f t="shared" si="15"/>
+        <v>59254.462529292927</v>
+      </c>
+      <c r="G104" s="11">
+        <f t="shared" si="16"/>
+        <v>59254.462529292927</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B105" s="6">
+        <f t="shared" si="9"/>
+        <v>88</v>
+      </c>
+      <c r="C105" s="12">
+        <f t="shared" si="12"/>
+        <v>334764.79345676856</v>
+      </c>
+      <c r="D105" s="7">
+        <f t="shared" si="13"/>
+        <v>62185.786575914921</v>
+      </c>
+      <c r="E105" s="15">
+        <f t="shared" si="14"/>
+        <v>59254.462529292927</v>
+      </c>
+      <c r="F105" s="16">
+        <f t="shared" si="15"/>
+        <v>65422.230716970153</v>
+      </c>
+      <c r="G105" s="11">
+        <f t="shared" si="16"/>
+        <v>65422.230716970153</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B106" s="6">
+        <f t="shared" si="9"/>
+        <v>89</v>
+      </c>
+      <c r="C106" s="12">
+        <f t="shared" si="12"/>
+        <v>369610.29800279782</v>
+      </c>
+      <c r="D106" s="7">
+        <f t="shared" si="13"/>
+        <v>68658.674858025392</v>
+      </c>
+      <c r="E106" s="15">
+        <f t="shared" si="14"/>
+        <v>65422.230716970153</v>
+      </c>
+      <c r="F106" s="16">
+        <f t="shared" si="15"/>
+        <v>72231.998895755518</v>
+      </c>
+      <c r="G106" s="11">
+        <f t="shared" si="16"/>
+        <v>72231.998895755518</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B107" s="6">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="C107" s="12">
+        <f t="shared" ref="C107:C115" si="17">$B$6*POWER($B$11,B107)</f>
+        <v>408082.8541707418</v>
+      </c>
+      <c r="D107" s="7">
+        <f t="shared" ref="D107:D115" si="18">C107/$B$13</f>
+        <v>75805.322933485644</v>
+      </c>
+      <c r="E107" s="15">
+        <f t="shared" ref="E107:E115" si="19">F106</f>
+        <v>72231.998895755518</v>
+      </c>
+      <c r="F107" s="16">
+        <f t="shared" ref="F107:F115" si="20">((D108-D107)/2)+D107</f>
+        <v>79750.592532502051</v>
+      </c>
+      <c r="G107" s="11">
+        <f t="shared" ref="G107:G115" si="21">F107</f>
+        <v>79750.592532502051</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B108" s="6">
+        <f t="shared" si="9"/>
+        <v>91</v>
+      </c>
+      <c r="C108" s="12">
+        <f t="shared" si="17"/>
+        <v>450559.99999999558</v>
+      </c>
+      <c r="D108" s="7">
+        <f t="shared" si="18"/>
+        <v>83695.862131518457</v>
+      </c>
+      <c r="E108" s="15">
+        <f t="shared" si="19"/>
+        <v>79750.592532502051</v>
+      </c>
+      <c r="F108" s="16">
+        <f t="shared" si="20"/>
+        <v>88051.792924408554</v>
+      </c>
+      <c r="G108" s="11">
+        <f t="shared" si="21"/>
+        <v>88051.792924408554</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B109" s="6">
+        <f t="shared" si="9"/>
+        <v>92</v>
+      </c>
+      <c r="C109" s="12">
+        <f t="shared" si="17"/>
+        <v>497458.57128086797</v>
+      </c>
+      <c r="D109" s="7">
+        <f t="shared" si="18"/>
+        <v>92407.72371729865</v>
+      </c>
+      <c r="E109" s="15">
+        <f t="shared" si="19"/>
+        <v>88051.792924408554</v>
+      </c>
+      <c r="F109" s="16">
+        <f t="shared" si="20"/>
+        <v>97217.061228017454</v>
+      </c>
+      <c r="G109" s="11">
+        <f t="shared" si="21"/>
+        <v>97217.061228017454</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B110" s="6">
+        <f t="shared" si="9"/>
+        <v>93</v>
+      </c>
+      <c r="C110" s="12">
+        <f t="shared" si="17"/>
+        <v>549238.79203836294</v>
+      </c>
+      <c r="D110" s="7">
+        <f t="shared" si="18"/>
+        <v>102026.39873873626</v>
+      </c>
+      <c r="E110" s="15">
+        <f t="shared" si="19"/>
+        <v>97217.061228017454</v>
+      </c>
+      <c r="F110" s="16">
+        <f t="shared" si="20"/>
+        <v>107336.33785203901</v>
+      </c>
+      <c r="G110" s="11">
+        <f t="shared" si="21"/>
+        <v>107336.33785203901</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B111" s="6">
+        <f t="shared" si="9"/>
+        <v>94</v>
+      </c>
+      <c r="C111" s="12">
+        <f t="shared" si="17"/>
+        <v>606408.79079242819</v>
+      </c>
+      <c r="D111" s="7">
+        <f t="shared" si="18"/>
+        <v>112646.27696534176</v>
+      </c>
+      <c r="E111" s="15">
+        <f t="shared" si="19"/>
+        <v>107336.33785203901</v>
+      </c>
+      <c r="F111" s="16">
+        <f t="shared" si="20"/>
+        <v>118508.92505858575</v>
+      </c>
+      <c r="G111" s="11">
+        <f t="shared" si="21"/>
+        <v>118508.92505858575</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B112" s="6">
+        <f t="shared" si="9"/>
+        <v>95</v>
+      </c>
+      <c r="C112" s="12">
+        <f t="shared" si="17"/>
+        <v>669529.58691353654</v>
+      </c>
+      <c r="D112" s="7">
+        <f t="shared" si="18"/>
+        <v>124371.57315182974</v>
+      </c>
+      <c r="E112" s="15">
+        <f t="shared" si="19"/>
+        <v>118508.92505858575</v>
+      </c>
+      <c r="F112" s="16">
+        <f t="shared" si="20"/>
+        <v>130844.4614339402</v>
+      </c>
+      <c r="G112" s="11">
+        <f t="shared" si="21"/>
+        <v>130844.4614339402</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113" s="6">
+        <f t="shared" si="9"/>
+        <v>96</v>
+      </c>
+      <c r="C113" s="12">
+        <f t="shared" si="17"/>
+        <v>739220.59600559506</v>
+      </c>
+      <c r="D113" s="7">
+        <f t="shared" si="18"/>
+        <v>137317.34971605067</v>
+      </c>
+      <c r="E113" s="15">
+        <f t="shared" si="19"/>
+        <v>130844.4614339402</v>
+      </c>
+      <c r="F113" s="16">
+        <f t="shared" si="20"/>
+        <v>144463.99779151095</v>
+      </c>
+      <c r="G113" s="11">
+        <f t="shared" si="21"/>
+        <v>144463.99779151095</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B114" s="6">
+        <f t="shared" si="9"/>
+        <v>97</v>
+      </c>
+      <c r="C114" s="12">
+        <f t="shared" si="17"/>
+        <v>816165.70834148314</v>
+      </c>
+      <c r="D114" s="7">
+        <f t="shared" si="18"/>
+        <v>151610.6458669712</v>
+      </c>
+      <c r="E114" s="15">
+        <f t="shared" si="19"/>
+        <v>144463.99779151095</v>
+      </c>
+      <c r="F114" s="16">
+        <f t="shared" si="20"/>
+        <v>159501.18506500399</v>
+      </c>
+      <c r="G114" s="11">
+        <f t="shared" si="21"/>
+        <v>159501.18506500399</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="6">
+        <f t="shared" si="9"/>
+        <v>98</v>
+      </c>
+      <c r="C115" s="12">
+        <f t="shared" si="17"/>
+        <v>901119.99999999045</v>
+      </c>
+      <c r="D115" s="7">
+        <f t="shared" si="18"/>
+        <v>167391.72426303677</v>
+      </c>
+      <c r="E115" s="15">
+        <f t="shared" si="19"/>
+        <v>159501.18506500399</v>
+      </c>
+      <c r="F115" s="16">
+        <f t="shared" si="20"/>
+        <v>83695.862131518385</v>
+      </c>
+      <c r="G115" s="11">
+        <f t="shared" si="21"/>
+        <v>83695.862131518385</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="H52:H65">
+    <sortCondition ref="H41"/>
+  </sortState>
+  <conditionalFormatting sqref="B17:F17">
+    <cfRule type="expression" dxfId="32" priority="8">
+      <formula>$B$17&lt;$B$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:F45">
+    <cfRule type="expression" dxfId="31" priority="7">
+      <formula>$B18&lt;$B$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46:F74">
+    <cfRule type="expression" dxfId="30" priority="6">
+      <formula>$B46&lt;$B$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B75:F80">
+    <cfRule type="expression" dxfId="29" priority="5">
+      <formula>$B75&lt;$B$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B83:F98">
+    <cfRule type="expression" dxfId="28" priority="3">
+      <formula>$B83&lt;$B$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B81:F82">
+    <cfRule type="expression" dxfId="27" priority="4">
+      <formula>$B81&lt;$B$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B99:F106">
+    <cfRule type="expression" dxfId="26" priority="2">
+      <formula>$B99&lt;$B$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B107:F115">
+    <cfRule type="expression" dxfId="25" priority="1">
+      <formula>$B107&lt;$B$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L99"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="2" max="11" width="8.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>36000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>8.25</v>
+      </c>
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="14">
+        <f>POWER(2,K5)</f>
+        <v>304.43702144069641</v>
+      </c>
+      <c r="L6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="17">
+        <f>K7</f>
+        <v>16744.036179238301</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="14">
+        <f>K6*B6</f>
+        <v>16744.036179238301</v>
+      </c>
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4096</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <f>K9</f>
+        <v>58.75</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9">
+        <v>58.5</v>
+      </c>
+      <c r="K9">
+        <f>(K5*K8)+1</f>
+        <v>58.75</v>
+      </c>
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13">
+        <f>POWER(B7/B6,1/(B9-1))</f>
+        <v>1.1040895136738123</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <f>B5/2</f>
+        <v>18000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f>B5/B8</f>
+        <v>8.7890625</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <f>B8/2-1</f>
+        <v>2047</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
+        <v>0</v>
+      </c>
+      <c r="C17" s="12">
+        <f t="shared" ref="C17:C74" si="0">$B$6*POWER($B$11,B17)</f>
+        <v>55</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" ref="D17:D74" si="1">C17/$B$13</f>
+        <v>6.2577777777777781</v>
+      </c>
+      <c r="E17" s="15">
+        <v>0</v>
+      </c>
+      <c r="F17" s="16">
+        <f>((D18-D17)/2)+D17</f>
+        <v>6.5834623005616173</v>
+      </c>
+      <c r="G17" s="11">
+        <f>F17</f>
+        <v>6.5834623005616173</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="6">
+        <f>B17+1</f>
+        <v>1</v>
+      </c>
+      <c r="C18" s="12">
+        <f t="shared" si="0"/>
         <v>60.724923252059675</v>
       </c>
       <c r="D18" s="7">
@@ -5981,32 +11816,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B17:F17">
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="24" priority="6">
       <formula>$B$17&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:F45">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="23" priority="5">
       <formula>$B18&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:F74">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="22" priority="4">
       <formula>$B46&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:F80">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>$B75&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83:F99">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>$B83&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81:F82">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>$B81&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6014,7 +11849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K74"/>
   <sheetViews>
@@ -7660,17 +13495,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B17:F17">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="18" priority="4">
       <formula>$B$17&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:F45">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="17" priority="3">
       <formula>$B18&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:F74">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="16" priority="1">
       <formula>$B46&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
